--- a/pvstand/datos_procesados_analisis_integrado_py/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv_curves/iv_curves_report.xlsx
@@ -1752,7 +1752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,11 +1776,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1792,7 +1787,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1804,9 +1798,6 @@
       <c r="C3" t="n">
         <v>73.2736</v>
       </c>
-      <c r="D3" t="n">
-        <v>33.88140894872841</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1818,9 +1809,6 @@
       <c r="C4" t="n">
         <v>178.1828</v>
       </c>
-      <c r="D4" t="n">
-        <v>13.35413929040736</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1832,9 +1820,6 @@
       <c r="C5" t="n">
         <v>259.0693</v>
       </c>
-      <c r="D5" t="n">
-        <v>8.801780546697879</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1846,9 +1831,6 @@
       <c r="C6" t="n">
         <v>319.8316</v>
       </c>
-      <c r="D6" t="n">
-        <v>6.827362515341008</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1860,9 +1842,6 @@
       <c r="C7" t="n">
         <v>363.8839</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.738089258356982</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1874,9 +1853,6 @@
       <c r="C8" t="n">
         <v>393.4856</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.071957311534968</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1888,9 +1864,6 @@
       <c r="C9" t="n">
         <v>411.7379</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.627153321813614</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1902,9 +1875,6 @@
       <c r="C10" t="n">
         <v>421.1342</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.314796445128247</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1916,9 +1886,6 @@
       <c r="C11" t="n">
         <v>423.8577</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.084223339092194</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1930,9 +1897,6 @@
       <c r="C12" t="n">
         <v>420.8032</v>
       </c>
-      <c r="D12" t="n">
-        <v>3.911817734797574</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1944,9 +1908,6 @@
       <c r="C13" t="n">
         <v>391.9293</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.003325079589671</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1958,9 +1919,6 @@
       <c r="C14" t="n">
         <v>379.2655</v>
       </c>
-      <c r="D14" t="n">
-        <v>3.911173621195657</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1972,9 +1930,6 @@
       <c r="C15" t="n">
         <v>359.5582</v>
       </c>
-      <c r="D15" t="n">
-        <v>3.945632247724202</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1986,9 +1941,6 @@
       <c r="C16" t="n">
         <v>353.8707</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.878577859670429</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2000,9 +1952,6 @@
       <c r="C17" t="n">
         <v>343.9365</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.748799381942704</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2014,9 +1963,6 @@
       <c r="C18" t="n">
         <v>335.8935</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.591638574648936</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2028,9 +1974,6 @@
       <c r="C19" t="n">
         <v>333.8818</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.463892114322965</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2042,9 +1985,6 @@
       <c r="C20" t="n">
         <v>312.5363</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.066264523222298</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2056,9 +1996,6 @@
       <c r="C21" t="n">
         <v>317.8359</v>
       </c>
-      <c r="D21" t="n">
-        <v>2.935409779349581</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2070,9 +2007,6 @@
       <c r="C22" t="n">
         <v>317.8013</v>
       </c>
-      <c r="D22" t="n">
-        <v>2.889271343847136</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2084,9 +2018,6 @@
       <c r="C23" t="n">
         <v>307.3699</v>
       </c>
-      <c r="D23" t="n">
-        <v>2.789465661944728</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2098,9 +2029,6 @@
       <c r="C24" t="n">
         <v>296.812</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.688588560007614</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2112,9 +2040,6 @@
       <c r="C25" t="n">
         <v>286.4592</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.588499781364665</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2126,9 +2051,6 @@
       <c r="C26" t="n">
         <v>276.4096</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.483506796337372</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2140,9 +2062,6 @@
       <c r="C27" t="n">
         <v>265.8143</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.383457222669382</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2154,9 +2073,6 @@
       <c r="C28" t="n">
         <v>254.9543</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.287053787067994</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2168,9 +2084,6 @@
       <c r="C29" t="n">
         <v>244.1808</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.189479664788599</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2182,9 +2095,6 @@
       <c r="C30" t="n">
         <v>233.5513</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.089710361527838</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2196,9 +2106,6 @@
       <c r="C31" t="n">
         <v>223.1593</v>
       </c>
-      <c r="D31" t="n">
-        <v>1.988286043306715</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2210,9 +2117,6 @@
       <c r="C32" t="n">
         <v>212.4616</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.888724413309322</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2224,9 +2128,6 @@
       <c r="C33" t="n">
         <v>201.7111</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.792238518965387</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2238,9 +2139,6 @@
       <c r="C34" t="n">
         <v>190.6912</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.694243621042313</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2252,9 +2150,6 @@
       <c r="C35" t="n">
         <v>179.9465</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.597262132446462</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2266,9 +2161,6 @@
       <c r="C36" t="n">
         <v>169.0871</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.499580927985535</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2280,9 +2172,6 @@
       <c r="C37" t="n">
         <v>158.0771</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.401932439940859</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2294,9 +2183,6 @@
       <c r="C38" t="n">
         <v>147.2467</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.305714070474791</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2308,9 +2194,6 @@
       <c r="C39" t="n">
         <v>137.1022</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.201728270231809</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2322,9 +2205,6 @@
       <c r="C40" t="n">
         <v>128.3923</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.085570053239911</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2336,9 +2216,6 @@
       <c r="C41" t="n">
         <v>117.3172</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.9906362567080791</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2350,9 +2227,6 @@
       <c r="C42" t="n">
         <v>106.1743</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.8967044681750511</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2364,9 +2238,6 @@
       <c r="C43" t="n">
         <v>95.0364</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.8023006881850842</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2378,9 +2249,6 @@
       <c r="C44" t="n">
         <v>83.9092</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7069622286474826</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2392,9 +2260,6 @@
       <c r="C45" t="n">
         <v>72.7675</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6117508985549769</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2406,9 +2271,6 @@
       <c r="C46" t="n">
         <v>61.7399</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5185164820058835</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2420,9 +2282,6 @@
       <c r="C47" t="n">
         <v>50.4615</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4236224368254201</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2434,9 +2293,6 @@
       <c r="C48" t="n">
         <v>39.2615</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3293249196332897</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2448,9 +2304,6 @@
       <c r="C49" t="n">
         <v>28.1192</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2353796889295517</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2462,9 +2315,6 @@
       <c r="C50" t="n">
         <v>16.8622</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1407182073136196</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2476,9 +2326,6 @@
       <c r="C51" t="n">
         <v>9.334199999999999</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.07767247119778888</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2489,9 +2336,6 @@
       </c>
       <c r="C52" t="n">
         <v>9.2578</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.07705290430879549</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2529,11 +2373,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2545,7 +2384,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2557,9 +2395,6 @@
       <c r="C3" t="n">
         <v>16.4843</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.477560552079279</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2571,9 +2406,6 @@
       <c r="C4" t="n">
         <v>17.4161</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.338461964958971</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2585,9 +2417,6 @@
       <c r="C5" t="n">
         <v>17.9705</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.24167389532897</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2599,9 +2428,6 @@
       <c r="C6" t="n">
         <v>18.2315</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.173317435754332</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2613,9 +2439,6 @@
       <c r="C7" t="n">
         <v>18.2128</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.125646380270485</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2627,9 +2450,6 @@
       <c r="C8" t="n">
         <v>17.9876</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.085999312005504</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2641,9 +2461,6 @@
       <c r="C9" t="n">
         <v>17.7557</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.048279716201769</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2655,9 +2472,6 @@
       <c r="C10" t="n">
         <v>17.4378</v>
       </c>
-      <c r="D10" t="n">
-        <v>1.017488767573313</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2669,9 +2483,6 @@
       <c r="C11" t="n">
         <v>17.0539</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.9922089825847845</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2683,9 +2494,6 @@
       <c r="C12" t="n">
         <v>16.6371</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.9672083715098616</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2697,9 +2505,6 @@
       <c r="C13" t="n">
         <v>16.1976</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.9436412348241656</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2711,9 +2516,6 @@
       <c r="C14" t="n">
         <v>15.8218</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.9213320463320464</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2725,9 +2527,6 @@
       <c r="C15" t="n">
         <v>15.3884</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.8933355821125674</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2739,9 +2538,6 @@
       <c r="C16" t="n">
         <v>15.005</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.868408391070054</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2753,9 +2549,6 @@
       <c r="C17" t="n">
         <v>14.5793</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.8429354621525439</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2767,9 +2560,6 @@
       <c r="C18" t="n">
         <v>14.1322</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.8172614467102731</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2781,9 +2571,6 @@
       <c r="C19" t="n">
         <v>13.6828</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.7962752997370517</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2795,9 +2582,6 @@
       <c r="C20" t="n">
         <v>13.3209</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.7701740886794267</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2809,9 +2593,6 @@
       <c r="C21" t="n">
         <v>12.8923</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.7459828730876552</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2823,9 +2604,6 @@
       <c r="C22" t="n">
         <v>12.4371</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.7235407621804149</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2837,9 +2615,6 @@
       <c r="C23" t="n">
         <v>12.0568</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.699397880539499</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2851,9 +2626,6 @@
       <c r="C24" t="n">
         <v>11.6218</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.6708310309204045</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2865,9 +2637,6 @@
       <c r="C25" t="n">
         <v>11.2023</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.6491815117958594</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2879,9 +2648,6 @@
       <c r="C26" t="n">
         <v>10.7452</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.623088592963614</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2893,9 +2659,6 @@
       <c r="C27" t="n">
         <v>10.3646</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.5980015372790162</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2907,9 +2670,6 @@
       <c r="C28" t="n">
         <v>9.944100000000001</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.5748599456613209</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2921,9 +2681,6 @@
       <c r="C29" t="n">
         <v>9.5284</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.5498198414604851</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2935,9 +2692,6 @@
       <c r="C30" t="n">
         <v>9.053900000000001</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.5248471132084557</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2949,9 +2703,6 @@
       <c r="C31" t="n">
         <v>8.692299999999999</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.5012847914315218</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2963,9 +2714,6 @@
       <c r="C32" t="n">
         <v>8.2342</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.4768264510539995</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2977,9 +2725,6 @@
       <c r="C33" t="n">
         <v>7.801</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.4522078297298598</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2991,9 +2736,6 @@
       <c r="C34" t="n">
         <v>7.3913</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.4262625777478927</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3005,9 +2747,6 @@
       <c r="C35" t="n">
         <v>7</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.4038720215219063</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3019,9 +2758,6 @@
       <c r="C36" t="n">
         <v>6.5747</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.3792540288685544</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3033,9 +2769,6 @@
       <c r="C37" t="n">
         <v>6.1649</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.3551677787912246</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3047,9 +2780,6 @@
       <c r="C38" t="n">
         <v>5.7064</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.330837205942549</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3061,9 +2791,6 @@
       <c r="C39" t="n">
         <v>5.278</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.3047625913110342</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3075,9 +2802,6 @@
       <c r="C40" t="n">
         <v>4.854</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.2798453707260853</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3089,9 +2813,6 @@
       <c r="C41" t="n">
         <v>4.4328</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.2558681498210124</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3103,9 +2824,6 @@
       <c r="C42" t="n">
         <v>4.0297</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.2320558661899163</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3117,9 +2835,6 @@
       <c r="C43" t="n">
         <v>3.5969</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.2072392107916086</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3131,9 +2846,6 @@
       <c r="C44" t="n">
         <v>3.2119</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.1847969488354242</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3145,9 +2857,6 @@
       <c r="C45" t="n">
         <v>2.7629</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.1592442321081315</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3159,9 +2868,6 @@
       <c r="C46" t="n">
         <v>2.3513</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.1353809238152369</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3173,9 +2879,6 @@
       <c r="C47" t="n">
         <v>1.894</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.1096460624142826</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3187,9 +2890,6 @@
       <c r="C48" t="n">
         <v>1.5136</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.08716311886534354</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3201,9 +2901,6 @@
       <c r="C49" t="n">
         <v>1.0388</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.05982003599280143</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3215,9 +2912,6 @@
       <c r="C50" t="n">
         <v>0.6865</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.03945917437790669</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3229,9 +2923,6 @@
       <c r="C51" t="n">
         <v>0.4277</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.02457326428845416</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3242,9 +2933,6 @@
       </c>
       <c r="C52" t="n">
         <v>0.4245</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.02445110977804439</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +2946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3282,11 +2970,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3298,7 +2981,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3310,9 +2992,6 @@
       <c r="C3" t="n">
         <v>16.7737</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.453301150913961</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3324,9 +3003,6 @@
       <c r="C4" t="n">
         <v>17.7283</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.317756754546198</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3338,9 +3014,6 @@
       <c r="C5" t="n">
         <v>18.2811</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.224974761202143</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3352,9 +3025,6 @@
       <c r="C6" t="n">
         <v>18.4851</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.16088612670409</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3366,9 +3036,6 @@
       <c r="C7" t="n">
         <v>18.5268</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.106554572559754</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3380,9 +3047,6 @@
       <c r="C8" t="n">
         <v>18.3571</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.068967181467182</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3394,9 +3058,6 @@
       <c r="C9" t="n">
         <v>18.093</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.033872779862788</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3408,9 +3069,6 @@
       <c r="C10" t="n">
         <v>17.7587</v>
       </c>
-      <c r="D10" t="n">
-        <v>1.005711429999286</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3422,9 +3080,6 @@
       <c r="C11" t="n">
         <v>17.3624</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.9779286121131574</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3436,9 +3091,6 @@
       <c r="C12" t="n">
         <v>16.9431</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.9548475928211946</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3450,9 +3102,6 @@
       <c r="C13" t="n">
         <v>16.4626</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.9329397481372151</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3464,9 +3113,6 @@
       <c r="C14" t="n">
         <v>16.041</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.9107415173465498</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3478,9 +3124,6 @@
       <c r="C15" t="n">
         <v>15.6041</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.8827418894491486</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3492,9 +3135,6 @@
       <c r="C16" t="n">
         <v>15.2516</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.8592485343333888</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3506,9 +3146,6 @@
       <c r="C17" t="n">
         <v>14.7984</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.8337091452849447</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3520,9 +3157,6 @@
       <c r="C18" t="n">
         <v>14.3925</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.8104029234492905</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3534,9 +3168,6 @@
       <c r="C19" t="n">
         <v>13.9662</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.7856177216991199</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3548,9 +3179,6 @@
       <c r="C20" t="n">
         <v>13.5405</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.7620154670968355</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3562,9 +3190,6 @@
       <c r="C21" t="n">
         <v>13.1035</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.7377387590461502</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3576,9 +3201,6 @@
       <c r="C22" t="n">
         <v>12.6874</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.7133880299724936</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3590,9 +3212,6 @@
       <c r="C23" t="n">
         <v>12.2533</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.6888114375133366</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3604,9 +3223,6 @@
       <c r="C24" t="n">
         <v>11.8222</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.6650933327008373</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3618,9 +3234,6 @@
       <c r="C25" t="n">
         <v>11.3958</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.6405557267834704</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3632,9 +3245,6 @@
       <c r="C26" t="n">
         <v>10.9683</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.6163711359757253</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3646,9 +3256,6 @@
       <c r="C27" t="n">
         <v>10.5356</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.5921904265155645</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3660,9 +3267,6 @@
       <c r="C28" t="n">
         <v>10.1155</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.5691446463304711</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3674,9 +3278,6 @@
       <c r="C29" t="n">
         <v>9.684699999999999</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.5441852747356942</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3688,9 +3289,6 @@
       <c r="C30" t="n">
         <v>9.273400000000001</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.520867401350871</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3702,9 +3300,6 @@
       <c r="C31" t="n">
         <v>8.840299999999999</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.4966815208116053</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3716,9 +3311,6 @@
       <c r="C32" t="n">
         <v>8.4168</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.4717789668071405</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3730,9 +3322,6 @@
       <c r="C33" t="n">
         <v>7.9932</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.448368149306049</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3744,9 +3333,6 @@
       <c r="C34" t="n">
         <v>7.5651</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.4250059255747807</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3758,9 +3344,6 @@
       <c r="C35" t="n">
         <v>7.1308</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.3998153059291532</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3772,9 +3355,6 @@
       <c r="C36" t="n">
         <v>6.7019</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.3754141815772035</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3786,9 +3366,6 @@
       <c r="C37" t="n">
         <v>6.2658</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.351621538388648</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3800,9 +3377,6 @@
       <c r="C38" t="n">
         <v>5.8372</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.3277569783422586</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3814,9 +3388,6 @@
       <c r="C39" t="n">
         <v>5.4125</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.3039789558499419</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3828,9 +3399,6 @@
       <c r="C40" t="n">
         <v>4.9737</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.2794766036125729</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3842,9 +3410,6 @@
       <c r="C41" t="n">
         <v>4.563</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.2556752278376139</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3856,9 +3421,6 @@
       <c r="C42" t="n">
         <v>4.1205</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.2310497525397239</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3870,9 +3432,6 @@
       <c r="C43" t="n">
         <v>3.697</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.206999361113083</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3884,9 +3443,6 @@
       <c r="C44" t="n">
         <v>3.2716</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.1831582434222979</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3898,9 +3454,6 @@
       <c r="C45" t="n">
         <v>2.8512</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.1594693028095734</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3912,9 +3465,6 @@
       <c r="C46" t="n">
         <v>2.4215</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.1356449704142012</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3926,9 +3476,6 @@
       <c r="C47" t="n">
         <v>1.9946</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.1117871262517459</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3940,9 +3487,6 @@
       <c r="C48" t="n">
         <v>1.5691</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.08762642971925513</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3954,9 +3498,6 @@
       <c r="C49" t="n">
         <v>1.1117</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.06211444373537545</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3968,9 +3509,6 @@
       <c r="C50" t="n">
         <v>0.6995</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.03915213739916255</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3982,9 +3520,6 @@
       <c r="C51" t="n">
         <v>0.4322</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.02421703004048008</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3995,9 +3530,6 @@
       </c>
       <c r="C52" t="n">
         <v>0.4292</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.02405530826782839</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +3543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4035,11 +3567,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4051,7 +3578,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4063,9 +3589,6 @@
       <c r="C3" t="n">
         <v>16.9865</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.39715498451302</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4077,9 +3600,6 @@
       <c r="C4" t="n">
         <v>18.0989</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.254449241786015</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4091,9 +3611,6 @@
       <c r="C5" t="n">
         <v>18.721</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.16603858344356</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4105,9 +3622,6 @@
       <c r="C6" t="n">
         <v>19.0449</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.094601074031454</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4119,9 +3633,6 @@
       <c r="C7" t="n">
         <v>19.1495</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.045278258025326</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4133,9 +3644,6 @@
       <c r="C8" t="n">
         <v>19.0288</v>
       </c>
-      <c r="D8" t="n">
-        <v>1.00427301339337</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4147,9 +3655,6 @@
       <c r="C9" t="n">
         <v>18.8011</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.9720100045475216</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4161,9 +3666,6 @@
       <c r="C10" t="n">
         <v>18.4491</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.942982456140351</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4175,9 +3677,6 @@
       <c r="C11" t="n">
         <v>18.0424</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.9189573459715641</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4189,9 +3688,6 @@
       <c r="C12" t="n">
         <v>17.6059</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.8945743074183441</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4203,9 +3699,6 @@
       <c r="C13" t="n">
         <v>17.0479</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.8685642055842719</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4217,9 +3710,6 @@
       <c r="C14" t="n">
         <v>16.4905</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.8476013421601524</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4231,9 +3721,6 @@
       <c r="C15" t="n">
         <v>16.2983</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.8370158859655086</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4245,9 +3732,6 @@
       <c r="C16" t="n">
         <v>15.9126</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.8168018487471113</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4259,9 +3743,6 @@
       <c r="C17" t="n">
         <v>15.4071</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.7834351816357363</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4273,9 +3754,6 @@
       <c r="C18" t="n">
         <v>14.9505</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.7609303794612643</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4287,9 +3765,6 @@
       <c r="C19" t="n">
         <v>14.5226</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.7374707048855238</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4301,9 +3776,6 @@
       <c r="C20" t="n">
         <v>14.0596</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.7142470755291094</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4315,9 +3787,6 @@
       <c r="C21" t="n">
         <v>13.632</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.6927412082957619</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4329,9 +3798,6 @@
       <c r="C22" t="n">
         <v>13.1737</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.669582469113536</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4343,9 +3809,6 @@
       <c r="C23" t="n">
         <v>12.7366</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.6476424560849663</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4357,9 +3820,6 @@
       <c r="C24" t="n">
         <v>12.2846</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.6247801181723874</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4371,9 +3831,6 @@
       <c r="C25" t="n">
         <v>11.8647</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.6026955757398185</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4385,9 +3842,6 @@
       <c r="C26" t="n">
         <v>11.3974</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.5797866341881499</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4399,9 +3853,6 @@
       <c r="C27" t="n">
         <v>10.9751</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.5584102136106287</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4413,9 +3864,6 @@
       <c r="C28" t="n">
         <v>10.5162</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.534796139274761</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4427,9 +3875,6 @@
       <c r="C29" t="n">
         <v>10.0888</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.513148398737032</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4441,9 +3886,6 @@
       <c r="C30" t="n">
         <v>9.621</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.4893549842129003</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4455,9 +3897,6 @@
       <c r="C31" t="n">
         <v>9.198700000000001</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.4677972217210896</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4469,9 +3908,6 @@
       <c r="C32" t="n">
         <v>8.7441</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.4451815248539002</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4483,9 +3919,6 @@
       <c r="C33" t="n">
         <v>8.316000000000001</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.4230743205142663</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4497,9 +3930,6 @@
       <c r="C34" t="n">
         <v>7.8626</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.4003023533924502</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4511,9 +3941,6 @@
       <c r="C35" t="n">
         <v>7.442</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.3785295444294091</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4525,9 +3952,6 @@
       <c r="C36" t="n">
         <v>6.9751</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.3549049240971737</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4539,9 +3963,6 @@
       <c r="C37" t="n">
         <v>6.5371</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.3320561653406658</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4553,9 +3974,6 @@
       <c r="C38" t="n">
         <v>6.0815</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.3089823058717458</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4567,9 +3985,6 @@
       <c r="C39" t="n">
         <v>5.6507</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.2866989525847505</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4581,9 +3996,6 @@
       <c r="C40" t="n">
         <v>5.1939</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.2635954043703537</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4595,9 +4007,6 @@
       <c r="C41" t="n">
         <v>4.7758</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.2423245861020386</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4609,9 +4018,6 @@
       <c r="C42" t="n">
         <v>4.3196</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.2191688253181665</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4623,9 +4029,6 @@
       <c r="C43" t="n">
         <v>3.8931</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.1969812848659349</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4637,9 +4040,6 @@
       <c r="C44" t="n">
         <v>3.4351</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.1740304755902676</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4651,9 +4051,6 @@
       <c r="C45" t="n">
         <v>3.0221</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.1531050937492966</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4665,9 +4062,6 @@
       <c r="C46" t="n">
         <v>2.556</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.1294387686214501</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4679,9 +4073,6 @@
       <c r="C47" t="n">
         <v>2.133</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.1081044574515984</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4693,9 +4084,6 @@
       <c r="C48" t="n">
         <v>1.6792</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.08513656526536219</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4707,9 +4095,6 @@
       <c r="C49" t="n">
         <v>1.2553</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.06365970095478292</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4721,9 +4106,6 @@
       <c r="C50" t="n">
         <v>0.7858000000000001</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.03982888663739728</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4735,9 +4117,6 @@
       <c r="C51" t="n">
         <v>0.4515</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.02286691724246584</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,9 +4127,6 @@
       </c>
       <c r="C52" t="n">
         <v>0.4434</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0224617946928946</v>
       </c>
     </row>
   </sheetData>
@@ -5389,7 +4765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5413,11 +4789,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -5429,7 +4800,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5441,9 +4811,6 @@
       <c r="C3" t="n">
         <v>42.7907</v>
       </c>
-      <c r="D3" t="n">
-        <v>58.49117268794576</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5455,9 +4822,6 @@
       <c r="C4" t="n">
         <v>144.1326</v>
       </c>
-      <c r="D4" t="n">
-        <v>16.6410465511383</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5469,9 +4833,6 @@
       <c r="C5" t="n">
         <v>221.4834</v>
       </c>
-      <c r="D5" t="n">
-        <v>10.38158435991253</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5483,9 +4844,6 @@
       <c r="C6" t="n">
         <v>278.9049</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.890000840972164</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5497,9 +4855,6 @@
       <c r="C7" t="n">
         <v>319.807</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.585988175190861</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5511,9 +4866,6 @@
       <c r="C8" t="n">
         <v>346.9617</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.798179843838875</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5525,9 +4877,6 @@
       <c r="C9" t="n">
         <v>363.2807</v>
       </c>
-      <c r="D9" t="n">
-        <v>5.284642568537347</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5539,9 +4888,6 @@
       <c r="C10" t="n">
         <v>371.3311</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.931420339959666</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5553,9 +4899,6 @@
       <c r="C11" t="n">
         <v>373.3874</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.671509904589331</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5567,9 +4910,6 @@
       <c r="C12" t="n">
         <v>348.0969</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.761994432618307</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5581,9 +4921,6 @@
       <c r="C13" t="n">
         <v>335.2576</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.733213721319851</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5595,9 +4932,6 @@
       <c r="C14" t="n">
         <v>327.471</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.611981391816197</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5609,9 +4943,6 @@
       <c r="C15" t="n">
         <v>317.1521</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.502061192393843</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5623,9 +4954,6 @@
       <c r="C16" t="n">
         <v>309.6008</v>
       </c>
-      <c r="D16" t="n">
-        <v>4.295644082171127</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5637,9 +4965,6 @@
       <c r="C17" t="n">
         <v>306.195</v>
       </c>
-      <c r="D17" t="n">
-        <v>4.133936767251897</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5651,9 +4976,6 @@
       <c r="C18" t="n">
         <v>305.1342</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.919912046062474</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5665,9 +4987,6 @@
       <c r="C19" t="n">
         <v>307.661</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.651596034426408</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5679,9 +4998,6 @@
       <c r="C20" t="n">
         <v>298.2986</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.537302218205182</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5693,9 +5009,6 @@
       <c r="C21" t="n">
         <v>289.0766</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.423329306911299</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5707,9 +5020,6 @@
       <c r="C22" t="n">
         <v>279.6115</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.310237522713178</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5721,9 +5031,6 @@
       <c r="C23" t="n">
         <v>270.3521</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.194758182865715</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5735,9 +5042,6 @@
       <c r="C24" t="n">
         <v>261.14</v>
       </c>
-      <c r="D24" t="n">
-        <v>3.078676207124942</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5749,9 +5053,6 @@
       <c r="C25" t="n">
         <v>251.9214</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.964699883924019</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5763,9 +5064,6 @@
       <c r="C26" t="n">
         <v>242.5323</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.853216482098116</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5777,9 +5075,6 @@
       <c r="C27" t="n">
         <v>233.1466</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.737222481065326</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5791,9 +5086,6 @@
       <c r="C28" t="n">
         <v>223.7995</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.624752271521242</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5805,9 +5097,6 @@
       <c r="C29" t="n">
         <v>214.3317</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.510221529604017</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5819,9 +5108,6 @@
       <c r="C30" t="n">
         <v>205.0088</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.397460853014967</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5833,9 +5119,6 @@
       <c r="C31" t="n">
         <v>195.7122</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.280945697938033</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5847,9 +5130,6 @@
       <c r="C32" t="n">
         <v>186.4948</v>
       </c>
-      <c r="D32" t="n">
-        <v>2.169440339959231</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5861,9 +5141,6 @@
       <c r="C33" t="n">
         <v>176.834</v>
       </c>
-      <c r="D33" t="n">
-        <v>2.057678823770536</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5875,9 +5152,6 @@
       <c r="C34" t="n">
         <v>167.294</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.946466324373301</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5889,9 +5163,6 @@
       <c r="C35" t="n">
         <v>157.7499</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.833354894351013</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5903,9 +5174,6 @@
       <c r="C36" t="n">
         <v>148.2177</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.722055748377778</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5917,9 +5185,6 @@
       <c r="C37" t="n">
         <v>138.6881</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.609739280327515</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5931,9 +5196,6 @@
       <c r="C38" t="n">
         <v>129.3381</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.499305548078683</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5945,9 +5207,6 @@
       <c r="C39" t="n">
         <v>121.1932</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.368230356478776</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5959,9 +5218,6 @@
       <c r="C40" t="n">
         <v>112.397</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.249211955089347</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5973,9 +5229,6 @@
       <c r="C41" t="n">
         <v>102.5696</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.141758369293424</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5987,9 +5240,6 @@
       <c r="C42" t="n">
         <v>92.79900000000001</v>
       </c>
-      <c r="D42" t="n">
-        <v>1.032691597658104</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6001,9 +5251,6 @@
       <c r="C43" t="n">
         <v>83.0423</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.9225110141444802</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6015,9 +5262,6 @@
       <c r="C44" t="n">
         <v>73.3835</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.8146177511800405</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6029,9 +5273,6 @@
       <c r="C45" t="n">
         <v>63.7261</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.7052789934354486</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6043,9 +5284,6 @@
       <c r="C46" t="n">
         <v>54.0095</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5961003078151428</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6057,9 +5295,6 @@
       <c r="C47" t="n">
         <v>44.0789</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4864069918904155</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6071,9 +5306,6 @@
       <c r="C48" t="n">
         <v>34.3052</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3778638372007598</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6085,9 +5317,6 @@
       <c r="C49" t="n">
         <v>24.565</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2699189718969801</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6099,9 +5328,6 @@
       <c r="C50" t="n">
         <v>14.7002</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1609345735720339</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6113,9 +5339,6 @@
       <c r="C51" t="n">
         <v>4.7729</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.05216609517437484</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6126,9 +5349,6 @@
       </c>
       <c r="C52" t="n">
         <v>1.3362</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.01458664214661874</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +5362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6166,11 +5386,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6182,7 +5397,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6194,9 +5408,6 @@
       <c r="C3" t="n">
         <v>44.3691</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.75277086631984</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6208,9 +5419,6 @@
       <c r="C4" t="n">
         <v>148.0005</v>
       </c>
-      <c r="D4" t="n">
-        <v>16.31247302546396</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6222,9 +5430,6 @@
       <c r="C5" t="n">
         <v>227.8736</v>
       </c>
-      <c r="D5" t="n">
-        <v>10.15218354897946</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6236,9 +5441,6 @@
       <c r="C6" t="n">
         <v>286.631</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.729116376833013</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -6250,9 +5452,6 @@
       <c r="C7" t="n">
         <v>328.8134</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.443954474822561</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6264,9 +5463,6 @@
       <c r="C8" t="n">
         <v>356.7828</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.676585224334313</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6278,9 +5474,6 @@
       <c r="C9" t="n">
         <v>373.7022</v>
       </c>
-      <c r="D9" t="n">
-        <v>5.171634943415759</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -6292,9 +5485,6 @@
       <c r="C10" t="n">
         <v>382.0161</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.825325645953448</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -6306,9 +5496,6 @@
       <c r="C11" t="n">
         <v>383.8841</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.572214340281567</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -6320,9 +5507,6 @@
       <c r="C12" t="n">
         <v>372.2519</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.482617856202265</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6334,9 +5518,6 @@
       <c r="C13" t="n">
         <v>352.635</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.521202513729265</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -6348,9 +5529,6 @@
       <c r="C14" t="n">
         <v>339.6593</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.404684902179607</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -6362,9 +5540,6 @@
       <c r="C15" t="n">
         <v>333.9485</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.288048589785721</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -6376,9 +5551,6 @@
       <c r="C16" t="n">
         <v>332.4418</v>
       </c>
-      <c r="D16" t="n">
-        <v>4.081775571487141</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -6390,9 +5562,6 @@
       <c r="C17" t="n">
         <v>334.1217</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.814261597965681</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -6404,9 +5573,6 @@
       <c r="C18" t="n">
         <v>325.0419</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.6968976292299</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -6418,9 +5584,6 @@
       <c r="C19" t="n">
         <v>315.4088</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.586270140007037</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6432,9 +5595,6 @@
       <c r="C20" t="n">
         <v>305.7671</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.474788393066542</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6446,9 +5606,6 @@
       <c r="C21" t="n">
         <v>296.2067</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.362847888164344</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -6460,9 +5617,6 @@
       <c r="C22" t="n">
         <v>286.6852</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.249976043696298</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -6474,9 +5628,6 @@
       <c r="C23" t="n">
         <v>277.2613</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.137513962023297</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -6488,9 +5639,6 @@
       <c r="C24" t="n">
         <v>267.8591</v>
       </c>
-      <c r="D24" t="n">
-        <v>3.024759840176826</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -6502,9 +5650,6 @@
       <c r="C25" t="n">
         <v>258.4095</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.911108516600153</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6516,9 +5661,6 @@
       <c r="C26" t="n">
         <v>248.8642</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.798538721752686</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6530,9 +5672,6 @@
       <c r="C27" t="n">
         <v>239.1414</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.688956046869201</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6544,9 +5683,6 @@
       <c r="C28" t="n">
         <v>229.3536</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.578144382361984</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6558,9 +5694,6 @@
       <c r="C29" t="n">
         <v>219.6863</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.467432544140401</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6572,9 +5705,6 @@
       <c r="C30" t="n">
         <v>210.1917</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.355752231126732</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6586,9 +5716,6 @@
       <c r="C31" t="n">
         <v>200.6639</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.244957321007372</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -6600,9 +5727,6 @@
       <c r="C32" t="n">
         <v>190.7963</v>
       </c>
-      <c r="D32" t="n">
-        <v>2.134563108849941</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -6614,9 +5738,6 @@
       <c r="C33" t="n">
         <v>181.068</v>
       </c>
-      <c r="D33" t="n">
-        <v>2.024063775348375</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -6628,9 +5749,6 @@
       <c r="C34" t="n">
         <v>171.3594</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.91477891354214</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6642,9 +5760,6 @@
       <c r="C35" t="n">
         <v>161.7291</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.804641532952349</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6656,9 +5771,6 @@
       <c r="C36" t="n">
         <v>151.9623</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.693122084063417</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6670,9 +5782,6 @@
       <c r="C37" t="n">
         <v>142.2949</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.583874915597569</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6684,9 +5793,6 @@
       <c r="C38" t="n">
         <v>132.5645</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.47245057122381</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6698,9 +5804,6 @@
       <c r="C39" t="n">
         <v>124.8552</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.338977258605692</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6712,9 +5815,6 @@
       <c r="C40" t="n">
         <v>116.2177</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.219378034539979</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6726,9 +5826,6 @@
       <c r="C41" t="n">
         <v>106.0953</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.113176817651035</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6740,9 +5837,6 @@
       <c r="C42" t="n">
         <v>95.9864</v>
       </c>
-      <c r="D42" t="n">
-        <v>1.006820975010242</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6754,9 +5848,6 @@
       <c r="C43" t="n">
         <v>85.9743</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.9018025399426465</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6768,9 +5859,6 @@
       <c r="C44" t="n">
         <v>75.8939</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.794689178818112</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6782,9 +5870,6 @@
       <c r="C45" t="n">
         <v>65.7672</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6866563805981588</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6796,9 +5881,6 @@
       <c r="C46" t="n">
         <v>55.8173</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.582385928354733</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6810,9 +5892,6 @@
       <c r="C47" t="n">
         <v>45.7372</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4766829328051942</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6824,9 +5903,6 @@
       <c r="C48" t="n">
         <v>35.5285</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3695095709638271</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6838,9 +5914,6 @@
       <c r="C49" t="n">
         <v>25.4845</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2643580995060346</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6852,9 +5925,6 @@
       <c r="C50" t="n">
         <v>15.3831</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1588687221804435</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6866,9 +5936,6 @@
       <c r="C51" t="n">
         <v>5.1682</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.053153080059228</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6879,9 +5946,6 @@
       </c>
       <c r="C52" t="n">
         <v>2.3483</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.02412569690826153</v>
       </c>
     </row>
   </sheetData>
@@ -6895,7 +5959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6919,11 +5983,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6935,7 +5994,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6947,9 +6005,6 @@
       <c r="C3" t="n">
         <v>44.4218</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.64238934056007</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6961,9 +6016,6 @@
       <c r="C4" t="n">
         <v>149.7103</v>
       </c>
-      <c r="D4" t="n">
-        <v>16.11380860207998</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6975,9 +6027,6 @@
       <c r="C5" t="n">
         <v>230.5379</v>
       </c>
-      <c r="D5" t="n">
-        <v>10.02903326728543</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6989,9 +6038,6 @@
       <c r="C6" t="n">
         <v>290.852</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.611744722154817</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7003,9 +6049,6 @@
       <c r="C7" t="n">
         <v>333.7859</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.343585431084397</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7017,9 +6060,6 @@
       <c r="C8" t="n">
         <v>362.8939</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.574762648422201</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -7031,9 +6071,6 @@
       <c r="C9" t="n">
         <v>380.215</v>
       </c>
-      <c r="D9" t="n">
-        <v>5.078846087167574</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7045,9 +6082,6 @@
       <c r="C10" t="n">
         <v>389.1286</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.731560201572442</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -7059,9 +6093,6 @@
       <c r="C11" t="n">
         <v>391.2309</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.48245632813838</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -7073,9 +6104,6 @@
       <c r="C12" t="n">
         <v>364.2873</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.553952973535035</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -7087,9 +6115,6 @@
       <c r="C13" t="n">
         <v>347.8844</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.522169902746583</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7101,9 +6126,6 @@
       <c r="C14" t="n">
         <v>340.2246</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.389581771507758</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7115,9 +6137,6 @@
       <c r="C15" t="n">
         <v>332.0614</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.26402030663932</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7129,9 +6148,6 @@
       <c r="C16" t="n">
         <v>324.2389</v>
       </c>
-      <c r="D16" t="n">
-        <v>4.153876627051499</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7143,9 +6159,6 @@
       <c r="C17" t="n">
         <v>320.4785</v>
       </c>
-      <c r="D17" t="n">
-        <v>4.007313145770899</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -7157,9 +6170,6 @@
       <c r="C18" t="n">
         <v>317.9943</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.869166197866685</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -7171,9 +6181,6 @@
       <c r="C19" t="n">
         <v>321.7802</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.510000313325744</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -7185,9 +6192,6 @@
       <c r="C20" t="n">
         <v>311.9482</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.402105351100714</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -7199,9 +6203,6 @@
       <c r="C21" t="n">
         <v>302.1066</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.293348089833676</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -7213,9 +6214,6 @@
       <c r="C22" t="n">
         <v>292.4692</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.181896884420014</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -7227,9 +6225,6 @@
       <c r="C23" t="n">
         <v>282.8728</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.071915381408921</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -7241,9 +6236,6 @@
       <c r="C24" t="n">
         <v>273.3438</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.958820591784927</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -7255,9 +6247,6 @@
       <c r="C25" t="n">
         <v>263.5628</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.847537081501346</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -7269,9 +6258,6 @@
       <c r="C26" t="n">
         <v>253.9834</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.737386321166064</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -7283,9 +6269,6 @@
       <c r="C27" t="n">
         <v>243.9729</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.629984945231791</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -7297,9 +6280,6 @@
       <c r="C28" t="n">
         <v>234.0474</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.522157976144751</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -7311,9 +6291,6 @@
       <c r="C29" t="n">
         <v>224.2213</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.414207446146184</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -7325,9 +6302,6 @@
       <c r="C30" t="n">
         <v>214.6277</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.3042212367374</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7339,9 +6313,6 @@
       <c r="C31" t="n">
         <v>204.6269</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.194352107862934</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7353,9 +6324,6 @@
       <c r="C32" t="n">
         <v>194.7802</v>
       </c>
-      <c r="D32" t="n">
-        <v>2.087583079694391</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7367,9 +6335,6 @@
       <c r="C33" t="n">
         <v>184.8925</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.98029515865295</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -7381,9 +6346,6 @@
       <c r="C34" t="n">
         <v>174.8916</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.870430313246533</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -7395,9 +6357,6 @@
       <c r="C35" t="n">
         <v>165.0503</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.763585243071707</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -7409,9 +6368,6 @@
       <c r="C36" t="n">
         <v>155.1151</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.655402892561983</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -7423,9 +6379,6 @@
       <c r="C37" t="n">
         <v>145.1795</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.547675343045646</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -7437,9 +6390,6 @@
       <c r="C38" t="n">
         <v>135.2491</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.43942723324358</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -7451,9 +6401,6 @@
       <c r="C39" t="n">
         <v>127.1627</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.311421636827086</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -7465,9 +6412,6 @@
       <c r="C40" t="n">
         <v>118.4249</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.192966256498786</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -7479,9 +6423,6 @@
       <c r="C41" t="n">
         <v>108.0541</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.088849404726054</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -7493,9 +6434,6 @@
       <c r="C42" t="n">
         <v>97.78400000000001</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.9846368434784354</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -7507,9 +6445,6 @@
       <c r="C43" t="n">
         <v>87.4533</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.8805703563221851</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7521,9 +6456,6 @@
       <c r="C44" t="n">
         <v>77.17359999999999</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7759939834544999</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7535,9 +6467,6 @@
       <c r="C45" t="n">
         <v>66.997</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6722125950337062</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7549,9 +6478,6 @@
       <c r="C46" t="n">
         <v>56.6952</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5678642914331464</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7563,9 +6489,6 @@
       <c r="C47" t="n">
         <v>46.377</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4641310110943268</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7577,9 +6500,6 @@
       <c r="C48" t="n">
         <v>35.9972</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3596445635007897</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7591,9 +6511,6 @@
       <c r="C49" t="n">
         <v>25.695</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2562110560792459</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7605,9 +6522,6 @@
       <c r="C50" t="n">
         <v>15.4074</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1530901116427432</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7619,9 +6533,6 @@
       <c r="C51" t="n">
         <v>5.4062</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.05306227585250351</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7632,9 +6543,6 @@
       </c>
       <c r="C52" t="n">
         <v>3.4763</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.03435934144595562</v>
       </c>
     </row>
   </sheetData>
@@ -7648,7 +6556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7672,11 +6580,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -7688,7 +6591,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -7700,9 +6602,6 @@
       <c r="C3" t="n">
         <v>44.6451</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.26032779524024</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7714,9 +6613,6 @@
       <c r="C4" t="n">
         <v>151.6428</v>
       </c>
-      <c r="D4" t="n">
-        <v>15.8729172732861</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -7728,9 +6624,6 @@
       <c r="C5" t="n">
         <v>233.089</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.897708539399932</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7742,9 +6635,6 @@
       <c r="C6" t="n">
         <v>294.5642</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.497559029993619</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7756,9 +6646,6 @@
       <c r="C7" t="n">
         <v>338.3822</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.244328524465455</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7770,9 +6657,6 @@
       <c r="C8" t="n">
         <v>368.2578</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.48401386278769</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -7784,9 +6668,6 @@
       <c r="C9" t="n">
         <v>386.1792</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.991564155619728</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7798,9 +6679,6 @@
       <c r="C10" t="n">
         <v>395.5885</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.646868835757484</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -7812,9 +6690,6 @@
       <c r="C11" t="n">
         <v>398.0259</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.39868593955322</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -7826,9 +6701,6 @@
       <c r="C12" t="n">
         <v>394.9938</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.216007355903836</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -7840,9 +6712,6 @@
       <c r="C13" t="n">
         <v>377.1553</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.183746550670907</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -7854,9 +6723,6 @@
       <c r="C14" t="n">
         <v>366.5037</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.101898968526845</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -7868,9 +6734,6 @@
       <c r="C15" t="n">
         <v>361.3297</v>
       </c>
-      <c r="D15" t="n">
-        <v>3.950656140534323</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -7882,9 +6745,6 @@
       <c r="C16" t="n">
         <v>356.0921</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.780910280585695</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -7896,9 +6756,6 @@
       <c r="C17" t="n">
         <v>347.7191</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.656217635176013</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -7910,9 +6767,6 @@
       <c r="C18" t="n">
         <v>338.0168</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.546544977772315</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -7924,9 +6778,6 @@
       <c r="C19" t="n">
         <v>328.0006</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.440135183573148</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -7938,9 +6789,6 @@
       <c r="C20" t="n">
         <v>317.9284</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.334347189365777</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -7952,9 +6800,6 @@
       <c r="C21" t="n">
         <v>307.92</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.227412799328399</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -7966,9 +6811,6 @@
       <c r="C22" t="n">
         <v>298.1317</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.119121166867827</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -7980,9 +6822,6 @@
       <c r="C23" t="n">
         <v>288.3341</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.009972004822527</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -7994,9 +6833,6 @@
       <c r="C24" t="n">
         <v>278.4753</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.901488241058305</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -8008,9 +6844,6 @@
       <c r="C25" t="n">
         <v>268.5782</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.793430150733269</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -8022,9 +6855,6 @@
       <c r="C26" t="n">
         <v>259.0096</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.682859062042013</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -8036,9 +6866,6 @@
       <c r="C27" t="n">
         <v>249.0337</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.577006022135417</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8050,9 +6877,6 @@
       <c r="C28" t="n">
         <v>238.9695</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.471150521670158</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -8064,9 +6888,6 @@
       <c r="C29" t="n">
         <v>228.8839</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.364079840643929</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8078,9 +6899,6 @@
       <c r="C30" t="n">
         <v>219.0336</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.257413479792493</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -8092,9 +6910,6 @@
       <c r="C31" t="n">
         <v>208.9871</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.148584523036989</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -8106,9 +6921,6 @@
       <c r="C32" t="n">
         <v>198.9829</v>
       </c>
-      <c r="D32" t="n">
-        <v>2.045339335320477</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -8120,9 +6932,6 @@
       <c r="C33" t="n">
         <v>188.6337</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.938706407137064</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8134,9 +6943,6 @@
       <c r="C34" t="n">
         <v>178.6983</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.835219960071749</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8148,9 +6954,6 @@
       <c r="C35" t="n">
         <v>168.4726</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.729158013109506</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8162,9 +6965,6 @@
       <c r="C36" t="n">
         <v>158.435</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.623955939376145</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8176,9 +6976,6 @@
       <c r="C37" t="n">
         <v>148.2535</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.517899785485895</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8190,9 +6987,6 @@
       <c r="C38" t="n">
         <v>138.2379</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.412928533155399</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8204,9 +6998,6 @@
       <c r="C39" t="n">
         <v>129.5496</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.291825607637155</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -8218,9 +7009,6 @@
       <c r="C40" t="n">
         <v>120.8332</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.171887771682932</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -8232,9 +7020,6 @@
       <c r="C41" t="n">
         <v>110.3255</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.070041363009651</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -8246,9 +7031,6 @@
       <c r="C42" t="n">
         <v>99.8693</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.9685748894556987</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -8260,9 +7042,6 @@
       <c r="C43" t="n">
         <v>89.462</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.867093280826975</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -8274,9 +7053,6 @@
       <c r="C44" t="n">
         <v>79.0249</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7654492308600785</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -8288,9 +7064,6 @@
       <c r="C45" t="n">
         <v>68.59950000000001</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6628004128372733</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -8302,9 +7075,6 @@
       <c r="C46" t="n">
         <v>58.0877</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5605261348343304</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -8316,9 +7086,6 @@
       <c r="C47" t="n">
         <v>47.5933</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4585341434446745</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -8330,9 +7097,6 @@
       <c r="C48" t="n">
         <v>37.135</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3571071341014955</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -8344,9 +7108,6 @@
       <c r="C49" t="n">
         <v>26.634</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2556282696866979</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -8358,9 +7119,6 @@
       <c r="C50" t="n">
         <v>16.0966</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1540531021933515</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -8372,9 +7130,6 @@
       <c r="C51" t="n">
         <v>7.0781</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.06750065918612487</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8385,9 +7140,6 @@
       </c>
       <c r="C52" t="n">
         <v>4.4078</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.04200712647044468</v>
       </c>
     </row>
   </sheetData>
@@ -8401,7 +7153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8425,11 +7177,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -8441,7 +7188,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -8453,9 +7199,6 @@
       <c r="C3" t="n">
         <v>48.7286</v>
       </c>
-      <c r="D3" t="n">
-        <v>51.20645822655049</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -8467,9 +7210,6 @@
       <c r="C4" t="n">
         <v>154.9005</v>
       </c>
-      <c r="D4" t="n">
-        <v>15.44088024500363</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -8481,9 +7221,6 @@
       <c r="C5" t="n">
         <v>236.5193</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.690051614209088</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -8495,9 +7232,6 @@
       <c r="C6" t="n">
         <v>298.0424</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.363869284333296</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -8509,9 +7243,6 @@
       <c r="C7" t="n">
         <v>342.461</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.129476768298393</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -8523,9 +7254,6 @@
       <c r="C8" t="n">
         <v>372.5161</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.384421174122654</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -8537,9 +7265,6 @@
       <c r="C9" t="n">
         <v>391.0499</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.895995345246221</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -8551,9 +7276,6 @@
       <c r="C10" t="n">
         <v>400.6232</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.557150627659688</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -8565,9 +7287,6 @@
       <c r="C11" t="n">
         <v>403.4688</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.309500924978555</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -8579,9 +7298,6 @@
       <c r="C12" t="n">
         <v>400.633</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.128258486275784</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -8593,9 +7309,6 @@
       <c r="C13" t="n">
         <v>383.6588</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.087258089487538</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -8607,9 +7320,6 @@
       <c r="C14" t="n">
         <v>373.7658</v>
       </c>
-      <c r="D14" t="n">
-        <v>3.994706861437625</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -8621,9 +7331,6 @@
       <c r="C15" t="n">
         <v>366.164</v>
       </c>
-      <c r="D15" t="n">
-        <v>3.859400024639646</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -8635,9 +7342,6 @@
       <c r="C16" t="n">
         <v>360.7114</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.710137725401108</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -8649,9 +7353,6 @@
       <c r="C17" t="n">
         <v>352.8882</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.578165120986013</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8663,9 +7364,6 @@
       <c r="C18" t="n">
         <v>343.0187</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.468991039732902</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -8677,9 +7375,6 @@
       <c r="C19" t="n">
         <v>332.9294</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.364789737712499</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -8691,9 +7386,6 @@
       <c r="C20" t="n">
         <v>322.7216</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.261309260525152</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -8705,9 +7397,6 @@
       <c r="C21" t="n">
         <v>312.4818</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.157249836658793</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -8719,9 +7408,6 @@
       <c r="C22" t="n">
         <v>302.5339</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.050711466816626</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -8733,9 +7419,6 @@
       <c r="C23" t="n">
         <v>292.5767</v>
       </c>
-      <c r="D23" t="n">
-        <v>2.943807488991203</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -8747,9 +7430,6 @@
       <c r="C24" t="n">
         <v>282.597</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.838045035926524</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -8761,9 +7441,6 @@
       <c r="C25" t="n">
         <v>272.6293</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.732180755215633</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -8775,9 +7452,6 @@
       <c r="C26" t="n">
         <v>263.0028</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.621988357812547</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -8789,9 +7463,6 @@
       <c r="C27" t="n">
         <v>252.9238</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.517238971248429</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8803,9 +7474,6 @@
       <c r="C28" t="n">
         <v>242.6548</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.413929643630126</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -8817,9 +7485,6 @@
       <c r="C29" t="n">
         <v>232.3794</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.310240993887909</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8831,9 +7496,6 @@
       <c r="C30" t="n">
         <v>222.2977</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.205079428315323</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -8845,9 +7507,6 @@
       <c r="C31" t="n">
         <v>212.3126</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.099420263914163</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -8859,9 +7518,6 @@
       <c r="C32" t="n">
         <v>201.9133</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.996946914095909</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -8873,9 +7529,6 @@
       <c r="C33" t="n">
         <v>191.5596</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.89402195529393</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8887,9 +7540,6 @@
       <c r="C34" t="n">
         <v>181.3216</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.791330795455675</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8901,9 +7551,6 @@
       <c r="C35" t="n">
         <v>171.1257</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.688220103297577</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8915,9 +7562,6 @@
       <c r="C36" t="n">
         <v>160.7623</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.584036449544381</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8929,9 +7573,6 @@
       <c r="C37" t="n">
         <v>150.4706</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.481420477659923</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8943,9 +7584,6 @@
       <c r="C38" t="n">
         <v>140.0877</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.377879818706549</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8957,9 +7595,6 @@
       <c r="C39" t="n">
         <v>131.259</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.26240585281657</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -8971,9 +7606,6 @@
       <c r="C40" t="n">
         <v>122.3381</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.145484982195386</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -8985,9 +7617,6 @@
       <c r="C41" t="n">
         <v>111.7546</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.045706049643057</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -8999,9 +7628,6 @@
       <c r="C42" t="n">
         <v>101.1023</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.9461083057635382</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9013,9 +7639,6 @@
       <c r="C43" t="n">
         <v>90.45140000000001</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.8460593634244706</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9027,9 +7650,6 @@
       <c r="C44" t="n">
         <v>79.8879</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7465272071688884</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -9041,9 +7661,6 @@
       <c r="C45" t="n">
         <v>69.2599</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6453752147807787</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -9055,9 +7672,6 @@
       <c r="C46" t="n">
         <v>58.6646</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5461395959167133</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -9069,9 +7683,6 @@
       <c r="C47" t="n">
         <v>47.9914</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4463142261996605</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -9083,9 +7694,6 @@
       <c r="C48" t="n">
         <v>37.3601</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3469696531652645</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -9097,9 +7705,6 @@
       <c r="C49" t="n">
         <v>26.7022</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2474298255746794</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -9111,9 +7716,6 @@
       <c r="C50" t="n">
         <v>15.986</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1475482284221044</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -9125,9 +7727,6 @@
       <c r="C51" t="n">
         <v>5.9685</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.054858348113705</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -9138,9 +7737,6 @@
       </c>
       <c r="C52" t="n">
         <v>5.706</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0524408482570848</v>
       </c>
     </row>
   </sheetData>
@@ -9154,7 +7750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9178,11 +7774,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9194,7 +7785,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9206,9 +7796,6 @@
       <c r="C3" t="n">
         <v>60.5607</v>
       </c>
-      <c r="D3" t="n">
-        <v>40.98321816386969</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9220,9 +7807,6 @@
       <c r="C4" t="n">
         <v>165.3833</v>
       </c>
-      <c r="D4" t="n">
-        <v>14.38508272628071</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9234,9 +7818,6 @@
       <c r="C5" t="n">
         <v>245.7534</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.275206900571161</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9248,9 +7829,6 @@
       <c r="C6" t="n">
         <v>306.4448</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.122835101841689</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -9262,9 +7840,6 @@
       <c r="C7" t="n">
         <v>350.1481</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.963797243683442</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -9276,9 +7851,6 @@
       <c r="C8" t="n">
         <v>379.6437</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.255312139680449</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -9290,9 +7862,6 @@
       <c r="C9" t="n">
         <v>397.8285</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.787467912854604</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -9304,9 +7873,6 @@
       <c r="C10" t="n">
         <v>407.1435</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.459232049229223</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -9318,9 +7884,6 @@
       <c r="C11" t="n">
         <v>409.8306</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.220297532066894</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9332,9 +7895,6 @@
       <c r="C12" t="n">
         <v>406.9069</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.044033935140416</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9346,9 +7906,6 @@
       <c r="C13" t="n">
         <v>381.2184</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.092535797915328</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9360,9 +7917,6 @@
       <c r="C14" t="n">
         <v>367.7278</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.029099587581385</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -9374,9 +7928,6 @@
       <c r="C15" t="n">
         <v>357.6213</v>
       </c>
-      <c r="D15" t="n">
-        <v>3.933778724029072</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -9388,9 +7939,6 @@
       <c r="C16" t="n">
         <v>350.0089</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.799731182795699</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -9402,9 +7950,6 @@
       <c r="C17" t="n">
         <v>345.389</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.646947604221256</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -9416,9 +7961,6 @@
       <c r="C18" t="n">
         <v>348.2513</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.397854560540509</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -9430,9 +7972,6 @@
       <c r="C19" t="n">
         <v>338.1008</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.296554856674533</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -9444,9 +7983,6 @@
       <c r="C20" t="n">
         <v>327.8115</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.193941308274685</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -9458,9 +7994,6 @@
       <c r="C21" t="n">
         <v>317.5236</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.091749637362962</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -9472,9 +8005,6 @@
       <c r="C22" t="n">
         <v>307.3793</v>
       </c>
-      <c r="D22" t="n">
-        <v>2.987686210330175</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -9486,9 +8016,6 @@
       <c r="C23" t="n">
         <v>297.2672</v>
       </c>
-      <c r="D23" t="n">
-        <v>2.882899207248018</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -9500,9 +8027,6 @@
       <c r="C24" t="n">
         <v>287.2077</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.778943951525644</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -9514,9 +8038,6 @@
       <c r="C25" t="n">
         <v>277.084</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.674723180161327</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -9528,9 +8049,6 @@
       <c r="C26" t="n">
         <v>267.317</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.56887560043133</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -9542,9 +8060,6 @@
       <c r="C27" t="n">
         <v>256.8608</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.465625520491442</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -9556,9 +8071,6 @@
       <c r="C28" t="n">
         <v>246.5448</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.36596428326525</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -9570,9 +8082,6 @@
       <c r="C29" t="n">
         <v>236.129</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.263685586441209</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -9584,9 +8093,6 @@
       <c r="C30" t="n">
         <v>226.0197</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.161148377759959</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -9598,9 +8104,6 @@
       <c r="C31" t="n">
         <v>215.7358</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.0558082780164</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -9612,9 +8115,6 @@
       <c r="C32" t="n">
         <v>205.3111</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.956307836476514</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -9626,9 +8126,6 @@
       <c r="C33" t="n">
         <v>194.7664</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.855232722694489</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -9640,9 +8137,6 @@
       <c r="C34" t="n">
         <v>184.3123</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.755106023790704</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -9654,9 +8148,6 @@
       <c r="C35" t="n">
         <v>173.8469</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.654206701458323</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -9668,9 +8159,6 @@
       <c r="C36" t="n">
         <v>163.4115</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.553439803439804</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -9682,9 +8170,6 @@
       <c r="C37" t="n">
         <v>152.9332</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.451757163595974</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -9696,9 +8181,6 @@
       <c r="C38" t="n">
         <v>142.452</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.350995763743488</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -9710,9 +8192,6 @@
       <c r="C39" t="n">
         <v>133.1161</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.239042556270562</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -9724,9 +8203,6 @@
       <c r="C40" t="n">
         <v>124.2618</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.124262831488034</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -9738,9 +8214,6 @@
       <c r="C41" t="n">
         <v>113.4754</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.025919692690951</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9752,9 +8225,6 @@
       <c r="C42" t="n">
         <v>102.6933</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.9283941696062677</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9766,9 +8236,6 @@
       <c r="C43" t="n">
         <v>91.9188</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.8303805649545678</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9780,9 +8247,6 @@
       <c r="C44" t="n">
         <v>81.21259999999999</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7326070644998908</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -9794,9 +8258,6 @@
       <c r="C45" t="n">
         <v>70.4765</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6342386612656883</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -9808,9 +8269,6 @@
       <c r="C46" t="n">
         <v>59.6234</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.5360647810132464</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -9822,9 +8280,6 @@
       <c r="C47" t="n">
         <v>48.8714</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4387091884107403</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -9836,9 +8291,6 @@
       <c r="C48" t="n">
         <v>38.0825</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.341243847027641</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -9850,9 +8302,6 @@
       <c r="C49" t="n">
         <v>27.3086</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2440910637976024</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -9864,9 +8313,6 @@
       <c r="C50" t="n">
         <v>16.3963</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1460144004378639</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -9878,9 +8324,6 @@
       <c r="C51" t="n">
         <v>6.8997</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.06123814099846434</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -9891,9 +8334,6 @@
       </c>
       <c r="C52" t="n">
         <v>6.4917</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.05752828874286897</v>
       </c>
     </row>
   </sheetData>
@@ -9907,7 +8347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9931,11 +8371,6 @@
           <t>Power_W</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Resistance_Ohm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9947,7 +8382,6 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9959,9 +8393,6 @@
       <c r="C3" t="n">
         <v>63.1224</v>
       </c>
-      <c r="D3" t="n">
-        <v>39.24237167862493</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9973,9 +8404,6 @@
       <c r="C4" t="n">
         <v>167.9332</v>
       </c>
-      <c r="D4" t="n">
-        <v>14.14671736228014</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9987,9 +8415,6 @@
       <c r="C5" t="n">
         <v>249.6815</v>
       </c>
-      <c r="D5" t="n">
-        <v>9.115272178382407</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10001,9 +8426,6 @@
       <c r="C6" t="n">
         <v>310.8923</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.007867159114795</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -10015,9 +8437,6 @@
       <c r="C7" t="n">
         <v>355.4274</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.865766552760721</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -10029,9 +8448,6 @@
       <c r="C8" t="n">
         <v>385.2171</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.170256148846693</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -10043,9 +8459,6 @@
       <c r="C9" t="n">
         <v>403.8709</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.707443994601889</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -10057,9 +8470,6 @@
       <c r="C10" t="n">
         <v>413.2735</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.385547257275302</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -10071,9 +8481,6 @@
       <c r="C11" t="n">
         <v>415.5198</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.151960735313228</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -10085,9 +8492,6 @@
       <c r="C12" t="n">
         <v>380.27</v>
       </c>
-      <c r="D12" t="n">
-        <v>4.302921027997617</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -10099,9 +8503,6 @@
       <c r="C13" t="n">
         <v>367.925</v>
       </c>
-      <c r="D13" t="n">
-        <v>4.22763669886053</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -10113,9 +8514,6 @@
       <c r="C14" t="n">
         <v>355.7175</v>
       </c>
-      <c r="D14" t="n">
-        <v>4.117224314147391</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -10127,9 +8525,6 @@
       <c r="C15" t="n">
         <v>349.6592</v>
       </c>
-      <c r="D15" t="n">
-        <v>4.066701895908375</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -10141,9 +8536,6 @@
       <c r="C16" t="n">
         <v>345.653</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.96781486044892</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -10155,9 +8547,6 @@
       <c r="C17" t="n">
         <v>344.356</v>
       </c>
-      <c r="D17" t="n">
-        <v>3.863570883823405</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -10169,9 +8558,6 @@
       <c r="C18" t="n">
         <v>340.2293</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.525790722058779</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -10183,9 +8569,6 @@
       <c r="C19" t="n">
         <v>332.867</v>
       </c>
-      <c r="D19" t="n">
-        <v>3.557239440114127</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -10197,9 +8580,6 @@
       <c r="C20" t="n">
         <v>333.1622</v>
       </c>
-      <c r="D20" t="n">
-        <v>3.134208203606172</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -10211,9 +8591,6 @@
       <c r="C21" t="n">
         <v>322.8206</v>
       </c>
-      <c r="D21" t="n">
-        <v>3.034349701875999</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -10225,9 +8602,6 @@
       <c r="C22" t="n">
         <v>312.4336</v>
       </c>
-      <c r="D22" t="n">
-        <v>2.931372833909666</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -10239,9 +8613,6 @@
       <c r="C23" t="n">
         <v>302.2392</v>
       </c>
-      <c r="D23" t="n">
-        <v>2.828820200261211</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -10253,9 +8624,6 @@
       <c r="C24" t="n">
         <v>291.8898</v>
       </c>
-      <c r="D24" t="n">
-        <v>2.726403788537741</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10267,9 +8635,6 @@
       <c r="C25" t="n">
         <v>281.7843</v>
       </c>
-      <c r="D25" t="n">
-        <v>2.624811797861252</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -10281,9 +8646,6 @@
       <c r="C26" t="n">
         <v>271.7476</v>
       </c>
-      <c r="D26" t="n">
-        <v>2.51861407680533</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -10295,9 +8657,6 @@
       <c r="C27" t="n">
         <v>261.5583</v>
       </c>
-      <c r="D27" t="n">
-        <v>2.416501662853957</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -10309,9 +8668,6 @@
       <c r="C28" t="n">
         <v>250.7932</v>
       </c>
-      <c r="D28" t="n">
-        <v>2.316635751150922</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -10323,9 +8679,6 @@
       <c r="C29" t="n">
         <v>240.2247</v>
       </c>
-      <c r="D29" t="n">
-        <v>2.218035937349861</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -10337,9 +8690,6 @@
       <c r="C30" t="n">
         <v>229.7076</v>
       </c>
-      <c r="D30" t="n">
-        <v>2.117212776375035</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -10351,9 +8701,6 @@
       <c r="C31" t="n">
         <v>219.4021</v>
       </c>
-      <c r="D31" t="n">
-        <v>2.015757994018863</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -10365,9 +8712,6 @@
       <c r="C32" t="n">
         <v>208.8467</v>
       </c>
-      <c r="D32" t="n">
-        <v>1.914406349631871</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -10379,9 +8723,6 @@
       <c r="C33" t="n">
         <v>198.2191</v>
       </c>
-      <c r="D33" t="n">
-        <v>1.816342159171405</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -10393,9 +8734,6 @@
       <c r="C34" t="n">
         <v>187.6058</v>
       </c>
-      <c r="D34" t="n">
-        <v>1.717298124760811</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -10407,9 +8745,6 @@
       <c r="C35" t="n">
         <v>176.9599</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.619843092231152</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -10421,9 +8756,6 @@
       <c r="C36" t="n">
         <v>166.1388</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.520048591050829</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -10435,9 +8767,6 @@
       <c r="C37" t="n">
         <v>155.5585</v>
       </c>
-      <c r="D37" t="n">
-        <v>1.422015278561253</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -10449,9 +8778,6 @@
       <c r="C38" t="n">
         <v>144.8206</v>
       </c>
-      <c r="D38" t="n">
-        <v>1.323207509295812</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -10463,9 +8789,6 @@
       <c r="C39" t="n">
         <v>135.3039</v>
       </c>
-      <c r="D39" t="n">
-        <v>1.215525330553054</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -10477,9 +8800,6 @@
       <c r="C40" t="n">
         <v>126.1563</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.101818623602856</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -10491,9 +8811,6 @@
       <c r="C41" t="n">
         <v>115.2038</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.00582123301751</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -10505,9 +8822,6 @@
       <c r="C42" t="n">
         <v>104.1829</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.9091265763661841</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -10519,9 +8833,6 @@
       <c r="C43" t="n">
         <v>93.28489999999999</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.813510888648164</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -10533,9 +8844,6 @@
       <c r="C44" t="n">
         <v>82.32210000000001</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.7171711514947871</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -10547,9 +8855,6 @@
       <c r="C45" t="n">
         <v>71.4568</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.6212667953415946</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -10561,9 +8866,6 @@
       <c r="C46" t="n">
         <v>60.4466</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.524913568972426</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10575,9 +8877,6 @@
       <c r="C47" t="n">
         <v>49.4493</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.4293075174238754</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10589,9 +8888,6 @@
       <c r="C48" t="n">
         <v>38.377</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.3326381841710812</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -10603,9 +8899,6 @@
       <c r="C49" t="n">
         <v>27.446</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.2373075206427137</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -10617,9 +8910,6 @@
       <c r="C50" t="n">
         <v>16.3418</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.1404901206293868</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -10631,9 +8921,6 @@
       <c r="C51" t="n">
         <v>8.000500000000001</v>
       </c>
-      <c r="D51" t="n">
-        <v>0.06874113623091684</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -10644,9 +8931,6 @@
       </c>
       <c r="C52" t="n">
         <v>8.000999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.06873667624432293</v>
       </c>
     </row>
   </sheetData>

--- a/pvstand/datos_procesados_analisis_integrado_py/iv_curves/iv_curves_report.xlsx
+++ b/pvstand/datos_procesados_analisis_integrado_py/iv_curves/iv_curves_report.xlsx
@@ -20,6 +20,19 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251017143004PERC2_fixed_9" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251017143503PERC2_fixed_10" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251017150003PERC2_fixed_11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104172809PERC2_fixed_12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104172845PERC2_fixed_13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104172921PERC2_fixed_14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104172957PERC2_fixed_15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173037PERC2_fixed_16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173113PERC2_fixed_17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173149PERC2_fixed_18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173225PERC2_fixed_19" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173301PERC2_fixed_20" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173337PERC2_fixed_21" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173413PERC2_fixed_22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173448PERC2_fixed_23" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251104173525PERC2_fixed_24" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,6 +1752,1358 @@
       </c>
       <c r="AD12" t="n">
         <v>37.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:28:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1115.611868</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36.077</v>
+      </c>
+      <c r="J13" t="n">
+        <v>500.32</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13.2884</v>
+      </c>
+      <c r="L13" t="n">
+        <v>50.233</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12.3511</v>
+      </c>
+      <c r="N13" t="n">
+        <v>40.508</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1115.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>500.45</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13.283</v>
+      </c>
+      <c r="T13" t="n">
+        <v>50.233</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.3355</v>
+      </c>
+      <c r="W13" t="n">
+        <v>40.57</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1052.09</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1424.95</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17:28:45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1112.99011</v>
+      </c>
+      <c r="I14" t="n">
+        <v>35.945</v>
+      </c>
+      <c r="J14" t="n">
+        <v>500.47</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13.2703</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50.295</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.3394</v>
+      </c>
+      <c r="N14" t="n">
+        <v>40.559</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1113</v>
+      </c>
+      <c r="R14" t="n">
+        <v>500.71</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.2824</v>
+      </c>
+      <c r="T14" t="n">
+        <v>50.295</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12.3252</v>
+      </c>
+      <c r="W14" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.1697</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1055.18</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1423.66</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17:29:21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1114.307033</v>
+      </c>
+      <c r="I15" t="n">
+        <v>35.853</v>
+      </c>
+      <c r="J15" t="n">
+        <v>501.54</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.2671</v>
+      </c>
+      <c r="L15" t="n">
+        <v>50.382</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.3442</v>
+      </c>
+      <c r="N15" t="n">
+        <v>40.629</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1114.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>501.38</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.2863</v>
+      </c>
+      <c r="T15" t="n">
+        <v>50.382</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12.2957</v>
+      </c>
+      <c r="W15" t="n">
+        <v>40.777</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.0531</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1054.49</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1426.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17:29:57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1112.108132</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35.855</v>
+      </c>
+      <c r="J16" t="n">
+        <v>501.19</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13.2456</v>
+      </c>
+      <c r="L16" t="n">
+        <v>50.378</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.3362</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40.627</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1112.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>501.23</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13.255</v>
+      </c>
+      <c r="T16" t="n">
+        <v>50.378</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.3046</v>
+      </c>
+      <c r="W16" t="n">
+        <v>40.735</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1052.45</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1420.72</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17:30:37</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1112.845165</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>501.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.2307</v>
+      </c>
+      <c r="L17" t="n">
+        <v>50.382</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.336</v>
+      </c>
+      <c r="N17" t="n">
+        <v>40.629</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1112.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>501.44</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.2445</v>
+      </c>
+      <c r="T17" t="n">
+        <v>50.382</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V17" t="n">
+        <v>12.3167</v>
+      </c>
+      <c r="W17" t="n">
+        <v>40.712</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2232</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1053.3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1422.94</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17:31:13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1114.246593</v>
+      </c>
+      <c r="I18" t="n">
+        <v>35.885</v>
+      </c>
+      <c r="J18" t="n">
+        <v>501.47</v>
+      </c>
+      <c r="K18" t="n">
+        <v>13.2699</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.3369</v>
+      </c>
+      <c r="N18" t="n">
+        <v>40.648</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1114.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>501.61</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.2845</v>
+      </c>
+      <c r="T18" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12.3086</v>
+      </c>
+      <c r="W18" t="n">
+        <v>40.753</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1188</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1054.82</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1423.32</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:31:49</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1116.735604</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.987</v>
+      </c>
+      <c r="J19" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13.2747</v>
+      </c>
+      <c r="L19" t="n">
+        <v>50.421</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12.3568</v>
+      </c>
+      <c r="N19" t="n">
+        <v>40.666</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1116.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>502.13</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13.293</v>
+      </c>
+      <c r="T19" t="n">
+        <v>50.421</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12.2922</v>
+      </c>
+      <c r="W19" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1054.98</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1422.33</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17:32:25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1118.439121</v>
+      </c>
+      <c r="I20" t="n">
+        <v>36.424</v>
+      </c>
+      <c r="J20" t="n">
+        <v>503.18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.3202</v>
+      </c>
+      <c r="L20" t="n">
+        <v>50.428</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12.3735</v>
+      </c>
+      <c r="N20" t="n">
+        <v>40.666</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1118.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>503.21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13.326</v>
+      </c>
+      <c r="T20" t="n">
+        <v>50.428</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12.3417</v>
+      </c>
+      <c r="W20" t="n">
+        <v>40.773</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2015</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1055.41</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1425.44</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17:33:01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1116.385165</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36.705</v>
+      </c>
+      <c r="J21" t="n">
+        <v>501.13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.3017</v>
+      </c>
+      <c r="L21" t="n">
+        <v>50.378</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12.3355</v>
+      </c>
+      <c r="N21" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1116.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>500.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13.2888</v>
+      </c>
+      <c r="T21" t="n">
+        <v>50.378</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.2507</v>
+      </c>
+      <c r="W21" t="n">
+        <v>40.858</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1053.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1420.66</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17:33:37</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1114.947363</v>
+      </c>
+      <c r="I22" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>501.22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13.284</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12.3378</v>
+      </c>
+      <c r="N22" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1114.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>501.49</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13.2742</v>
+      </c>
+      <c r="T22" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12.3114</v>
+      </c>
+      <c r="W22" t="n">
+        <v>40.733</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1052.11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1422.67</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17:34:13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1112.325604</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36.561</v>
+      </c>
+      <c r="J23" t="n">
+        <v>500.49</v>
+      </c>
+      <c r="K23" t="n">
+        <v>13.2506</v>
+      </c>
+      <c r="L23" t="n">
+        <v>50.389</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12.3156</v>
+      </c>
+      <c r="N23" t="n">
+        <v>40.639</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1112.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>500.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13.2146</v>
+      </c>
+      <c r="T23" t="n">
+        <v>50.389</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12.2783</v>
+      </c>
+      <c r="W23" t="n">
+        <v>40.765</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.1194</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1049.79</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1417.91</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17:34:48</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1112.41022</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36.176</v>
+      </c>
+      <c r="J24" t="n">
+        <v>502.24</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.2264</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50.526</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12.3275</v>
+      </c>
+      <c r="N24" t="n">
+        <v>40.742</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1112.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>502.42</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13.2319</v>
+      </c>
+      <c r="T24" t="n">
+        <v>50.526</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="V24" t="n">
+        <v>12.2855</v>
+      </c>
+      <c r="W24" t="n">
+        <v>40.895</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1048.56</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1417.23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17:35:25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>my serial number</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>my module type</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Módulo Risen</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1111.226154</v>
+      </c>
+      <c r="I25" t="n">
+        <v>35.683</v>
+      </c>
+      <c r="J25" t="n">
+        <v>502.01</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13.1964</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50.565</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12.3129</v>
+      </c>
+      <c r="N25" t="n">
+        <v>40.771</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1111.2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>502.29</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13.2201</v>
+      </c>
+      <c r="T25" t="n">
+        <v>50.565</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.2727</v>
+      </c>
+      <c r="W25" t="n">
+        <v>40.928</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.0149</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1048.56</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1415.64</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>35.7</v>
       </c>
     </row>
   </sheetData>
@@ -4134,13 +5499,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4151,6 +5516,3588 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.2335</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.7803</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1659</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.0409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.7274</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.572</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.0535</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.686</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6013</v>
+      </c>
+      <c r="C5" t="n">
+        <v>267.1025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.6583</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3172</v>
+      </c>
+      <c r="C6" t="n">
+        <v>341.4096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.6283</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7317</v>
+      </c>
+      <c r="C7" t="n">
+        <v>398.4147</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.6052</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.8796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>440.6815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.5843</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.775</v>
+      </c>
+      <c r="C9" t="n">
+        <v>469.6215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.5544</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>487.9579</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.5312</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9796</v>
+      </c>
+      <c r="C11" t="n">
+        <v>497.5289</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.5081</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3511</v>
+      </c>
+      <c r="C12" t="n">
+        <v>500.3203</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.4827</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.6059</v>
+      </c>
+      <c r="C13" t="n">
+        <v>497.7136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.4619</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7745</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.3333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.4296</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.8354</v>
+      </c>
+      <c r="C15" t="n">
+        <v>480.4253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.4179</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="C16" t="n">
+        <v>468.8821</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.3857</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8791</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.7373</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.3694</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8892</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.344</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8888</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.763</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.3186</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8851</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.4285</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.2955</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8846</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.2312</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.2678</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8883</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.1006</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.2424</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8933</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.032</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.2216</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8933</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.8702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.1916</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8936</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.5965</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.1685</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8997</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.5665</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.1476</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.9004</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.4154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1222</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9496</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.3742</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9515</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.049</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.0668</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9547</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.8688</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.0437</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9648</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.8265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0183</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9801</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.8394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18.986</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9801</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.4404</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17.9629</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9826</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.2055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9375</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9854</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.9396</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9121</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9945</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.8821</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9961</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.4097</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9162</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13.0041</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.9683</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8359</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13.0002</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.8695</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8128</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0385</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.0203</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.737</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>141.729</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.757400000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.734299999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2673</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.8804</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7203</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2758</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.4932</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6743</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2808</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.6403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6535</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2884</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.1255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6304</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2866</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.5214</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6072</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2845</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.9203</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6001</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2838</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4559</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.287</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.6321</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4376</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2811</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.3743</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4308</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2843</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.2909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.2953</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.8398</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1682</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.2244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5681</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.0517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.7478</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6011</v>
+      </c>
+      <c r="C5" t="n">
+        <v>267.4378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.7155</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3175</v>
+      </c>
+      <c r="C6" t="n">
+        <v>341.839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.6878</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>398.997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.6601</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.873900000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>440.9687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.637</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7727</v>
+      </c>
+      <c r="C9" t="n">
+        <v>470.0889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.607</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4617</v>
+      </c>
+      <c r="C10" t="n">
+        <v>488.347</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.5839</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9728</v>
+      </c>
+      <c r="C11" t="n">
+        <v>497.874</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.5585</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3394</v>
+      </c>
+      <c r="C12" t="n">
+        <v>500.4688</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.5354</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5951</v>
+      </c>
+      <c r="C13" t="n">
+        <v>497.9519</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5077</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7601</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.3628</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.4731</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.8226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>480.5032</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.4614</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8602</v>
+      </c>
+      <c r="C16" t="n">
+        <v>468.8995</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.4429</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.862</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.8659</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4152</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8624</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.6635</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.3921</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8645</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.5724</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.3644</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8656</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.3886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.3413</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8679</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.2974</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3113</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8686</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.0644</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.2882</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8716</v>
+      </c>
+      <c r="C23" t="n">
+        <v>376.9854</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.2582</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8746</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.812</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2305</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8759</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.6182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2074</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.5046</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.1843</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8796</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.3633</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1543</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9332</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.3911</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1289</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9375</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1012</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9384</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.9544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.0735</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9409</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.7107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0504</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9535</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.723</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0204</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9595</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.4942</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17.9927</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9627</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.2335</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9696</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.967</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.045</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9396</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9689</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.7183</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9142</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9741</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.4985</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.8636</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9805</v>
+      </c>
+      <c r="C38" t="n">
+        <v>179.9569</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8611</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9812</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.9525</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8357</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.022</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.1236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8492</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1753</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.9413</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.7803</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2479</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.5679</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.757199999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2513</v>
+      </c>
+      <c r="C43" t="n">
+        <v>116.0438</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7317</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2513</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.4558</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6949</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2554</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.74379999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6718</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2582</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.19750000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6532</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2596</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.6999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6187</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2628</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.9936</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6207</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2678</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.7714</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4605</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2678</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.6456</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4468</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2694</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.4674</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4468</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2703</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.4696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.3822</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9199</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.9464</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8716</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5793</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.9265</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8256</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6253</v>
+      </c>
+      <c r="C5" t="n">
+        <v>269.034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.7979</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>343.3845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.761</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.755599999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.6631</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7288</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.891999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.4555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7079</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7922</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.7036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.6825</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4717</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.6427</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6571</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9805</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.0751</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6294</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3442</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.5397</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.604</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.9165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5763</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7599</v>
+      </c>
+      <c r="C14" t="n">
+        <v>492.2301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5143</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7153</v>
+      </c>
+      <c r="C15" t="n">
+        <v>477.0044</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5301</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8533</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.5318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.4955</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8585</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.4211</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8631</v>
+      </c>
+      <c r="C18" t="n">
+        <v>443.3642</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4424</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8702</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430.4116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4125</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8672</v>
+      </c>
+      <c r="C20" t="n">
+        <v>417.059</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.3893</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8698</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.9733</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3616</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8679</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.6916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3294</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8764</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.6567</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3017</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8787</v>
+      </c>
+      <c r="C24" t="n">
+        <v>364.4885</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.274</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8794</v>
+      </c>
+      <c r="C25" t="n">
+        <v>351.2718</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2463</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8826</v>
+      </c>
+      <c r="C26" t="n">
+        <v>338.1198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2209</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8833</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.9273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1978</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9284</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.8373</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1586</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9352</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.5619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1355</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9373</v>
+      </c>
+      <c r="C30" t="n">
+        <v>286.3733</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1009</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9396</v>
+      </c>
+      <c r="C31" t="n">
+        <v>273.0372</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0778</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9554</v>
+      </c>
+      <c r="C32" t="n">
+        <v>260.1155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0478</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9661</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.9766</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0201</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9602</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.5442</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9879</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.965</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.2474</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9625</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9702</v>
+      </c>
+      <c r="C36" t="n">
+        <v>207.037</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9325</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9716</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.6984</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9753</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.3591</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8725</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.995</v>
+      </c>
+      <c r="C39" t="n">
+        <v>167.2778</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8471</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0279</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.3432</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2229</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.9736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.771100000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2076</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.053</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.754899999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2458</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.9654</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7455</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2438</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.5793</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6949</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2513</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.7162</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6718</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2538</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.1728</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6441</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2568</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.5657</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6187</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2557</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.968</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6139</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2646</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.6719</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4651</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2671</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.7047</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4468</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2662</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.4595</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4399</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2634</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.3617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.3777</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.913</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1737</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.5841</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8624</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5766</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.7596</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8256</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.5742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.7979</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>342.9668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.761</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.747299999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.2861</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7333</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.885999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.2346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7034</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7816</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.1941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.6757</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.2415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6503</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>498.7164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6271</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3362</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.1859</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.5972</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5873</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.4221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.574</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.8124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5418</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>479.5877</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5209</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8492</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.2636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.491</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8494</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.0373</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4656</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8503</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.893</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4424</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8542</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.8758</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4102</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8528</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.5622</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.3848</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8503</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.3038</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3571</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8565</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.2852</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3248</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8547</v>
+      </c>
+      <c r="C23" t="n">
+        <v>376.9601</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3017</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8533</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.7694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2671</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8613</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.6903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2417</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8634</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.5564</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2163</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8622</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.3373</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.184</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9064</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.1283</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1563</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9167</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1286</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.908</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.6361</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.0986</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9114</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.4136</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.071</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.5167</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0387</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9295</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.1607</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0156</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9357</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.0436</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9902</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9348</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.7637</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9556</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9389</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.4477</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9279</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9409</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.1812</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9389</v>
+      </c>
+      <c r="C38" t="n">
+        <v>179.8828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8725</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9673</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.9213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8402</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0025</v>
+      </c>
+      <c r="C40" t="n">
+        <v>153.9529</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1946</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.6667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.8352</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.1902</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.7283</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.754899999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2165</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.7089</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.734</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2179</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.2277</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.688</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2273</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.4645</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6695</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2392</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.0594</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6395</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2383</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6118</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2346</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.8009</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6093</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2387</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5437</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4559</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2456</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.5304</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4285</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2433</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.161</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4216</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.236</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.0523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.3822</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9245</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1673</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.2776</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8693</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5683</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.3814</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.837</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.4305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.7933</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>342.9654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.7679</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7448</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.2309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7356</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.882999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.1241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7125</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.778</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.1327</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.6802</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4633</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.2549</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6503</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9723</v>
+      </c>
+      <c r="C11" t="n">
+        <v>498.6497</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6294</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.336</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.2049</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.604</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5885</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.5539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5763</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.748</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.771</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5624</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.8153</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.3727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5255</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8473</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.2556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.4955</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.837</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.6574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4724</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8471</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.8708</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.447</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8412</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.4982</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4193</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8453</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.435</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.387</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8466</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.2183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3616</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8537</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.2607</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3294</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.854</v>
+      </c>
+      <c r="C23" t="n">
+        <v>376.9988</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.2971</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8579</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.8401</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2763</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8567</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.6832</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2463</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8595</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.5131</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2232</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8638</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.4661</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1932</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9027</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.1579</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1632</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9098</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.0327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1332</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9139</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.8269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1055</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9146</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.5699</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0755</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9258</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.4932</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0753</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9359</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.7565</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0224</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9453</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.3057</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9947</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9478</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.0447</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9579</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9499</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.6526</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9325</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9531</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.4216</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9533</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.0536</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8748</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9595</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.8508</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8448</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0025</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.0124</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8148</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1843</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.5855</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.787100000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.1996</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.1862</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.759399999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.1943</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.5749</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7363</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.1987</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.1092</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6972</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2065</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.4461</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6695</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2149</v>
+      </c>
+      <c r="C46" t="n">
+        <v>74.92189999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6509</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2206</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.4886</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6164</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2225</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.8176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6093</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2296</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5198</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4308</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.1574</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4102</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2289</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31.8838</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4056</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2307</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31.8276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.4097</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9496</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1696</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.4213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8968</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5837</v>
+      </c>
+      <c r="C4" t="n">
+        <v>175.2293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8553</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6203</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.9604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.8139</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>343.5235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.7885</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.757199999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.977</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7517</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.891500000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.6614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7285</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7883</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.7558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.7008</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4676</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.6768</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6732</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9764</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.0954</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6477</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3369</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.6178</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5896</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.7721</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5878</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.751</v>
+      </c>
+      <c r="C14" t="n">
+        <v>492.0317</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5647</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7899</v>
+      </c>
+      <c r="C15" t="n">
+        <v>480.4476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5438</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8448</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.3988</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.507</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.856</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.4789</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4816</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.848</v>
+      </c>
+      <c r="C18" t="n">
+        <v>443.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4562</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8569</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430.1442</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4262</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8508</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.7014</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.4031</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8588</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.8051</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3685</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8718</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.8981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3385</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.873</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.6739</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3062</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>364.3012</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2808</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8718</v>
+      </c>
+      <c r="C25" t="n">
+        <v>351.1542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2554</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8732</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.9914</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2255</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8803</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.9112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.2023</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9288</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.9076</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1609</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9293</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.4537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1355</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9265</v>
+      </c>
+      <c r="C30" t="n">
+        <v>286.1352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1009</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9247</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.7232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0732</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9323</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.5922</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0478</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9453</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.5799</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0133</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9494</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.2614</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9902</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.951</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.0399</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9602</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9474</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.6421</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9302</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9597</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.491</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9139</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9835</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.6519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8656</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.957</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.6998</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8357</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0169</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.064</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8011</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2087</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.6689</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.7803</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2172</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.2679</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.743399999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2426</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.7858</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7249</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2431</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.3012</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6835</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2403</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.4911</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.658</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2435</v>
+      </c>
+      <c r="C46" t="n">
+        <v>74.9325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6281</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2435</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.2919</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6004</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2525</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.7137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6047</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2584</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4491</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2699</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.4988</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4285</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2644</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.2122</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4193</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2564</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.0713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Archivo</t>
         </is>
       </c>
@@ -4752,6 +9699,4822 @@
       </c>
       <c r="M12" t="n">
         <v>0.9193653851505841</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20251104172809PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:28:09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1115.611868</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1238.52</v>
+      </c>
+      <c r="G13" t="n">
+        <v>500.3203</v>
+      </c>
+      <c r="H13" t="n">
+        <v>40.5081</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.3511</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.2884</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50.2335</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7495178726029434</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.42358271505946</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20251104172845PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:28:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1112.99011</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1239.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>500.4688</v>
+      </c>
+      <c r="H14" t="n">
+        <v>40.5585</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.3394</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.2703</v>
+      </c>
+      <c r="K14" t="n">
+        <v>50.2953</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.7498404490372985</v>
+      </c>
+      <c r="M14" t="n">
+        <v>22.48307489452894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20251104172921PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:29:21</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1114.307033</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1240.495</v>
+      </c>
+      <c r="G15" t="n">
+        <v>501.5397</v>
+      </c>
+      <c r="H15" t="n">
+        <v>40.6294</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.3442</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.2671</v>
+      </c>
+      <c r="K15" t="n">
+        <v>50.3822</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.750329783534269</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22.5045559772573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20251104172957PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:29:57</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1112.108132</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1236.585</v>
+      </c>
+      <c r="G16" t="n">
+        <v>501.1859</v>
+      </c>
+      <c r="H16" t="n">
+        <v>40.6271</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.3362</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13.2456</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50.3777</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.751084626475519</v>
+      </c>
+      <c r="M16" t="n">
+        <v>22.53314608439533</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20251104173037PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:30:37</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1112.845165</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1238.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>501.2049</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40.6294</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.336</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.2307</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50.3822</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7518918172936684</v>
+      </c>
+      <c r="M17" t="n">
+        <v>22.51907613760446</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20251104173113PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:31:13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1114.246593</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1239.07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>501.468</v>
+      </c>
+      <c r="H18" t="n">
+        <v>40.6477</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.3369</v>
+      </c>
+      <c r="J18" t="n">
+        <v>13.2699</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.4097</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7496550342432883</v>
+      </c>
+      <c r="M18" t="n">
+        <v>22.5025592696607</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20251104173149PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:31:49</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1116.735604</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1238.655</v>
+      </c>
+      <c r="G19" t="n">
+        <v>502.5037</v>
+      </c>
+      <c r="H19" t="n">
+        <v>40.6661</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.3568</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13.2747</v>
+      </c>
+      <c r="K19" t="n">
+        <v>50.4212</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7507604247244312</v>
+      </c>
+      <c r="M19" t="n">
+        <v>22.49877671134053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20251104173225PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:32:25</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1118.439121</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1240.425</v>
+      </c>
+      <c r="G20" t="n">
+        <v>503.1831</v>
+      </c>
+      <c r="H20" t="n">
+        <v>40.6661</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.3735</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13.3202</v>
+      </c>
+      <c r="K20" t="n">
+        <v>50.428</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7491064845458008</v>
+      </c>
+      <c r="M20" t="n">
+        <v>22.49488106022715</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20251104173301PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:33:01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1116.385165</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1237.08</v>
+      </c>
+      <c r="G21" t="n">
+        <v>501.1298</v>
+      </c>
+      <c r="H21" t="n">
+        <v>40.6249</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12.3355</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13.3017</v>
+      </c>
+      <c r="K21" t="n">
+        <v>50.3777</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7478332048149904</v>
+      </c>
+      <c r="M21" t="n">
+        <v>22.44430576968479</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20251104173337PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:33:37</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1114.947363</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1237.39</v>
+      </c>
+      <c r="G22" t="n">
+        <v>501.2227</v>
+      </c>
+      <c r="H22" t="n">
+        <v>40.6249</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.3378</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.284</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7489342663926396</v>
+      </c>
+      <c r="M22" t="n">
+        <v>22.47741537552746</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20251104173413PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:34:13</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1112.325604</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1233.85</v>
+      </c>
+      <c r="G23" t="n">
+        <v>500.49</v>
+      </c>
+      <c r="H23" t="n">
+        <v>40.6386</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.3156</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.2506</v>
+      </c>
+      <c r="K23" t="n">
+        <v>50.3891</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.7495890936402666</v>
+      </c>
+      <c r="M23" t="n">
+        <v>22.49745929610014</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20251104173448PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:34:48</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1112.41022</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1232.895</v>
+      </c>
+      <c r="G24" t="n">
+        <v>502.2433</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40.7416</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.3275</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.2264</v>
+      </c>
+      <c r="K24" t="n">
+        <v>50.5264</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7515435350617687</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22.57455437617249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20251104173525PERC2_fixed_1MD439.txt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04.11.2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:35:25</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PERC2_fixed_1MD439</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1111.226154</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1232.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>502.0129</v>
+      </c>
+      <c r="H25" t="n">
+        <v>40.7713</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.3129</v>
+      </c>
+      <c r="J25" t="n">
+        <v>13.1964</v>
+      </c>
+      <c r="K25" t="n">
+        <v>50.5653</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7523272936169723</v>
+      </c>
+      <c r="M25" t="n">
+        <v>22.58824174507325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.4212</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9588</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1685</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.3748</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.9128</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5821</v>
+      </c>
+      <c r="C4" t="n">
+        <v>175.2083</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8714</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>269.3134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.8391</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3445</v>
+      </c>
+      <c r="C6" t="n">
+        <v>344.0084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7645</v>
+      </c>
+      <c r="C7" t="n">
+        <v>401.4126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7745</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.903</v>
+      </c>
+      <c r="C8" t="n">
+        <v>443.4002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.74</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.8016</v>
+      </c>
+      <c r="C9" t="n">
+        <v>472.4599</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.7123</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4846</v>
+      </c>
+      <c r="C10" t="n">
+        <v>490.5315</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6869</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.9659</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6661</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3568</v>
+      </c>
+      <c r="C12" t="n">
+        <v>502.5037</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.6338</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.6095</v>
+      </c>
+      <c r="C13" t="n">
+        <v>499.7631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.6038</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>492.9693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.6081</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7041</v>
+      </c>
+      <c r="C15" t="n">
+        <v>477.7758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5438</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.7784</v>
+      </c>
+      <c r="C16" t="n">
+        <v>466.9731</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.5207</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8643</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.9481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4976</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8618</v>
+      </c>
+      <c r="C18" t="n">
+        <v>443.6996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4722</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8757</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430.9784</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4422</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8766</v>
+      </c>
+      <c r="C20" t="n">
+        <v>417.7463</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.4145</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8824</v>
+      </c>
+      <c r="C21" t="n">
+        <v>404.6928</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3868</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8842</v>
+      </c>
+      <c r="C22" t="n">
+        <v>391.5093</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3477</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8794</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.9798</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3177</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8789</v>
+      </c>
+      <c r="C24" t="n">
+        <v>364.7013</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2831</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8858</v>
+      </c>
+      <c r="C25" t="n">
+        <v>351.5646</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2577</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8865</v>
+      </c>
+      <c r="C26" t="n">
+        <v>338.3694</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2369</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.886</v>
+      </c>
+      <c r="C27" t="n">
+        <v>325.203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.2092</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.929</v>
+      </c>
+      <c r="C28" t="n">
+        <v>313.0019</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1678</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9554</v>
+      </c>
+      <c r="C29" t="n">
+        <v>300.147</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1355</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9414</v>
+      </c>
+      <c r="C30" t="n">
+        <v>286.4645</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1101</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9499</v>
+      </c>
+      <c r="C31" t="n">
+        <v>273.373</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.087</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9503</v>
+      </c>
+      <c r="C32" t="n">
+        <v>260.133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0524</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9545</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.8136</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.027</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9467</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.3897</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9902</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9643</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.2654</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9602</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9609</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.8576</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9302</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9599</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.4944</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9721</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.3145</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8817</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.962</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.9722</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8425</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0307</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.3161</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2261</v>
+      </c>
+      <c r="C41" t="n">
+        <v>143.0082</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.794</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2607</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.8754</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.752599999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2582</v>
+      </c>
+      <c r="C43" t="n">
+        <v>116.0432</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7363</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2582</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.5696</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6949</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2511</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.7146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6603</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2529</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.0159</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6395</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2527</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.4859</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6072</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2605</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.8336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.4971</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2724</v>
+      </c>
+      <c r="C49" t="n">
+        <v>33.143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4674</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2726</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.7486</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4353</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2747</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.3283</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4285</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2644</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.2122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.428</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9702</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.2167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.9082</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5763</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.9121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8714</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6301</v>
+      </c>
+      <c r="C5" t="n">
+        <v>269.5216</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.8414</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>344.1539</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.8091</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7652</v>
+      </c>
+      <c r="C7" t="n">
+        <v>401.5243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7745</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.9071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>443.5847</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7514</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.8153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>473.1844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.7214</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4958</v>
+      </c>
+      <c r="C10" t="n">
+        <v>491.1158</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6915</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.0021</v>
+      </c>
+      <c r="C11" t="n">
+        <v>500.3835</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6661</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3735</v>
+      </c>
+      <c r="C12" t="n">
+        <v>503.1831</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.6407</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.6253</v>
+      </c>
+      <c r="C13" t="n">
+        <v>500.4757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.6107</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>493.8082</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5967</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.8173</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.8901</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5507</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8748</v>
+      </c>
+      <c r="C16" t="n">
+        <v>470.5829</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.5344</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8819</v>
+      </c>
+      <c r="C17" t="n">
+        <v>457.751</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8856</v>
+      </c>
+      <c r="C18" t="n">
+        <v>444.5503</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4791</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8908</v>
+      </c>
+      <c r="C19" t="n">
+        <v>431.5725</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4445</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8842</v>
+      </c>
+      <c r="C20" t="n">
+        <v>418.0208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.4237</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8892</v>
+      </c>
+      <c r="C21" t="n">
+        <v>405.0265</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3891</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8956</v>
+      </c>
+      <c r="C22" t="n">
+        <v>391.8866</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3545</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>378.6125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3246</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8991</v>
+      </c>
+      <c r="C24" t="n">
+        <v>365.3602</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.3037</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.9002</v>
+      </c>
+      <c r="C25" t="n">
+        <v>352.2237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2692</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.9064</v>
+      </c>
+      <c r="C26" t="n">
+        <v>339.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2415</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.9094</v>
+      </c>
+      <c r="C27" t="n">
+        <v>325.8513</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.2069</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9455</v>
+      </c>
+      <c r="C28" t="n">
+        <v>313.3712</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1815</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.951</v>
+      </c>
+      <c r="C29" t="n">
+        <v>300.2241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1492</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9467</v>
+      </c>
+      <c r="C30" t="n">
+        <v>286.7588</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1215</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9533</v>
+      </c>
+      <c r="C31" t="n">
+        <v>273.5938</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0916</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9723</v>
+      </c>
+      <c r="C32" t="n">
+        <v>260.6338</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0593</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9739</v>
+      </c>
+      <c r="C33" t="n">
+        <v>247.2733</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0339</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9741</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.974</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17.0085</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.8571</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9716</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9835</v>
+      </c>
+      <c r="C36" t="n">
+        <v>207.3678</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9485</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9865</v>
+      </c>
+      <c r="C37" t="n">
+        <v>194.1286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9368</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13.0167</v>
+      </c>
+      <c r="C38" t="n">
+        <v>181.4116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.884</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9863</v>
+      </c>
+      <c r="C39" t="n">
+        <v>167.3145</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8494</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.043</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.552</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8263</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2454</v>
+      </c>
+      <c r="C41" t="n">
+        <v>143.398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.778</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2543</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.6002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2644</v>
+      </c>
+      <c r="C43" t="n">
+        <v>116.2491</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7409</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2712</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.7313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.7018</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2683</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.9207</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6718</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2808</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.32599999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6578</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2834</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.8715</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6164</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2774</v>
+      </c>
+      <c r="C48" t="n">
+        <v>48.0163</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6001</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2845</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4216</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2788</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.156</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4193</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.282</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.1334</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.3781</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.3202</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31.677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.3777</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9107</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1765</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.7185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.867</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5825</v>
+      </c>
+      <c r="C4" t="n">
+        <v>175.0667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8302</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6166</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.6437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.791</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3369</v>
+      </c>
+      <c r="C6" t="n">
+        <v>343.302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.7588</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.7478</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.287</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7311</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.884600000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.1505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7079</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7794</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.1434</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.6825</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4685</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.5059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6548</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9787</v>
+      </c>
+      <c r="C11" t="n">
+        <v>498.9714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6249</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.1298</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.604</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5894</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.5901</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7331</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.0805</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.6059</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.6038</v>
+      </c>
+      <c r="C15" t="n">
+        <v>473.9767</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5393</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8121</v>
+      </c>
+      <c r="C16" t="n">
+        <v>468.144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.4955</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8503</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.1286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4701</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8634</v>
+      </c>
+      <c r="C18" t="n">
+        <v>443.4016</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4539</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8611</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430.2526</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4102</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8585</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.7477</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.387</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8656</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.8146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3525</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8652</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.4904</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3225</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8668</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.2864</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.2948</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8775</v>
+      </c>
+      <c r="C24" t="n">
+        <v>364.3676</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2717</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8714</v>
+      </c>
+      <c r="C25" t="n">
+        <v>351.0239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2417</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8663</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.6344</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.214</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8746</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.6195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1909</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9233</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.6267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1586</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9247</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.3181</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1286</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9176</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.8489</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.0918</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9279</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.6725</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.071</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9508</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.9347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0455</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9567</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.7682</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0156</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9538</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.3694</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9879</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9476</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.9519</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9556</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9574</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.7435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9279</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9734</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.6664</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9002</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9645</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.2095</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.9046</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13.0275</v>
+      </c>
+      <c r="C39" t="n">
+        <v>168.1136</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8379</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0254</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.1941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.808</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.2133</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.8091</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.8032</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2227</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.6243</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.761699999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2348</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.9601</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7363</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.241</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.4368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6903</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.244</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.6065</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6672</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2385</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.0252</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6464</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2456</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.544</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6095</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2582</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.8557</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.3017</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.4644</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4582</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2564</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.5871</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4353</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2634</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.301</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4285</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2646</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.2127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9245</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1655</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.1862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8716</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5784</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.8818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8233</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6132</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.8002</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3301</v>
+      </c>
+      <c r="C6" t="n">
+        <v>343.0478</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.7565</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.748900000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.3193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7402</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.8881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>442.3946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7057</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7835</v>
+      </c>
+      <c r="C9" t="n">
+        <v>471.2988</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.678</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4683</v>
+      </c>
+      <c r="C10" t="n">
+        <v>489.4436</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6571</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9751</v>
+      </c>
+      <c r="C11" t="n">
+        <v>498.8463</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6249</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3378</v>
+      </c>
+      <c r="C12" t="n">
+        <v>501.2227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.6017</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5892</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.5522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5718</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7455</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.6155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5555</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.8109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.1213</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5255</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8398</v>
+      </c>
+      <c r="C16" t="n">
+        <v>468.9796</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.4932</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8473</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.9936</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4747</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8398</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.6477</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4447</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8446</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.5837</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4147</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.843</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.302</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.3916</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8489</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.3489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3571</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8505</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.1046</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3317</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8533</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.0081</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.2971</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8547</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.7495</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2671</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8608</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.6779</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.244</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8553</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.3755</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2163</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8597</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.2739</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.1955</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.9114</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.3979</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1609</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9114</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.0402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1286</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.9181</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.859</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.0986</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.9146</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.4812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0778</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9293</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.5917</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.041</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9343</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.2818</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0133</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9423</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.1336</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9879</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9442</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.8936</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9556</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9423</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.5024</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9325</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9471</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.3327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.8682</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9762</v>
+      </c>
+      <c r="C38" t="n">
+        <v>179.956</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8634</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9526</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.6142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8425</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.0023</v>
+      </c>
+      <c r="C40" t="n">
+        <v>153.98</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1934</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.6543</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.775700000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.2174</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.2096</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2216</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.874</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7432</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2257</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.409</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6926</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.2307</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.548</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6649</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2362</v>
+      </c>
+      <c r="C46" t="n">
+        <v>74.982</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6464</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2369</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.5035</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6095</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2364</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.7772</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6413</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.284</v>
+      </c>
+      <c r="C49" t="n">
+        <v>35.0876</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4559</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2444</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.5276</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4331</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2442</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.2239</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4308</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2415</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.1869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.3891</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49.9313</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1758</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.7085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48.8808</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5798</v>
+      </c>
+      <c r="C4" t="n">
+        <v>174.9817</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.8393</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6171</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.717</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.8048</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3278</v>
+      </c>
+      <c r="C6" t="n">
+        <v>342.9742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.7679</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.743399999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.7539</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.8748</v>
+      </c>
+      <c r="C8" t="n">
+        <v>441.9363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.7125</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7697</v>
+      </c>
+      <c r="C9" t="n">
+        <v>470.7725</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.6871</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>488.6204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.6617</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.954</v>
+      </c>
+      <c r="C11" t="n">
+        <v>498.0238</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.6386</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3156</v>
+      </c>
+      <c r="C12" t="n">
+        <v>500.49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.6086</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>497.7502</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.5855</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7263</v>
+      </c>
+      <c r="C14" t="n">
+        <v>491.0487</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.5257</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7453</v>
+      </c>
+      <c r="C15" t="n">
+        <v>478.2751</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.5438</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8176</v>
+      </c>
+      <c r="C16" t="n">
+        <v>468.4034</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.5024</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.821</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.1767</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.4839</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8244</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.2364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.4539</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8281</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.4262</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8306</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.0482</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.3893</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8274</v>
+      </c>
+      <c r="C21" t="n">
+        <v>402.6442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.3685</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.835</v>
+      </c>
+      <c r="C22" t="n">
+        <v>389.779</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.3362</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8357</v>
+      </c>
+      <c r="C23" t="n">
+        <v>376.5499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3131</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8354</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.411</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.2763</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.2712</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.2577</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8423</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.2095</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2232</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8437</v>
+      </c>
+      <c r="C27" t="n">
+        <v>323.958</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.2069</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.8929</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.0969</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.1632</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>298.8047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.1447</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.889</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.4222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1055</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.897</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.1979</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.0847</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9135</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.3633</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0478</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9263</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.218</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0293</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9178</v>
+      </c>
+      <c r="C34" t="n">
+        <v>232.8994</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.9947</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.924</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.6401</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15.9739</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9284</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.5164</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9325</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9281</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.049</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9574</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.4965</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.8771</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9393</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.6211</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8563</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.9821</v>
+      </c>
+      <c r="C40" t="n">
+        <v>153.9197</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8148</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1774</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.5112</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.791700000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.1897</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.1502</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.768599999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.1909</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.6656</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7432</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.2105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.6949</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.1989</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.3653</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6809</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.211</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.051</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6509</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2145</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.4598</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6255</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2213</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.9345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6162</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2186</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5819</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.5772</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2506</v>
+      </c>
+      <c r="C50" t="n">
+        <v>34.1502</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4193</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.2097</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31.9584</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4193</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2103</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.5264</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50.0687</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1897</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59.569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49.0066</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.6052</v>
+      </c>
+      <c r="C4" t="n">
+        <v>176.6774</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47.9652</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.6429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>270.6648</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.9306</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3612</v>
+      </c>
+      <c r="C6" t="n">
+        <v>345.465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.903</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.772</v>
+      </c>
+      <c r="C7" t="n">
+        <v>402.6621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.8615</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.9039</v>
+      </c>
+      <c r="C8" t="n">
+        <v>444.3026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.8361</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7924</v>
+      </c>
+      <c r="C9" t="n">
+        <v>473.097</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.8107</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4706</v>
+      </c>
+      <c r="C10" t="n">
+        <v>491.0641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.7761</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.968</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.9751</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.7416</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>502.2433</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.7162</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.5708</v>
+      </c>
+      <c r="C13" t="n">
+        <v>499.2658</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.6839</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7251</v>
+      </c>
+      <c r="C14" t="n">
+        <v>492.257</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.6448</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7697</v>
+      </c>
+      <c r="C15" t="n">
+        <v>480.714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.6239</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8164</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.3883</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.6008</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8128</v>
+      </c>
+      <c r="C17" t="n">
+        <v>456.1452</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.5686</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8176</v>
+      </c>
+      <c r="C18" t="n">
+        <v>443.0851</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.5454</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8215</v>
+      </c>
+      <c r="C19" t="n">
+        <v>430.1017</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.5086</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8224</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.8376</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.4786</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8244</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.6956</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.444</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.829</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.5673</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.4186</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8329</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.5267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.3841</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8256</v>
+      </c>
+      <c r="C24" t="n">
+        <v>364.0424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.3518</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8345</v>
+      </c>
+      <c r="C25" t="n">
+        <v>351.0471</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.3241</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8336</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.833</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.2918</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8343</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.6026</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.2618</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.8888</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.7051</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.2273</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.8938</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.4879</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.195</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.8844</v>
+      </c>
+      <c r="C30" t="n">
+        <v>285.9697</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1627</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.8899</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.7857</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.1305</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.9064</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.8115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.0982</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.9151</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.6548</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0682</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.2614</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17.0428</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9178</v>
+      </c>
+      <c r="C35" t="n">
+        <v>220.156</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16.0082</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9215</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.8504</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9783</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9226</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.5586</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.9025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9442</v>
+      </c>
+      <c r="C38" t="n">
+        <v>179.956</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.9091</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9256</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.8584</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8769</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.9858</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.2306</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.174</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.8058</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.8283</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.6355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.782299999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.2023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.9473</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7546</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.1966</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.3349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.7132</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.1998</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.6131</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6855</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.2074</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.0907</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6578</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.2087</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.5239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6255</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.2087</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.8889</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6162</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.2142</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.5705</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.2264</v>
+      </c>
+      <c r="C50" t="n">
+        <v>33.3308</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4262</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.209</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.0474</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4239</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.2163</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.0349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Voltage_V</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current_A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Power_W</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.5653</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50.1099</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.1772</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.9872</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49.041</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.5976</v>
+      </c>
+      <c r="C4" t="n">
+        <v>176.4308</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48.0018</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>270.7285</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46.9604</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.3552</v>
+      </c>
+      <c r="C6" t="n">
+        <v>345.4046</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.9327</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.763999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>402.5551</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>44.9027</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.8977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>444.4332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>43.8659</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.7862</v>
+      </c>
+      <c r="C9" t="n">
+        <v>473.147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.8336</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.4587</v>
+      </c>
+      <c r="C10" t="n">
+        <v>490.8167</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41.8013</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.9583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>499.8746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.7713</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.3129</v>
+      </c>
+      <c r="C12" t="n">
+        <v>502.0129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39.7414</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="C13" t="n">
+        <v>498.991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38.7114</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.7111</v>
+      </c>
+      <c r="C14" t="n">
+        <v>492.066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37.6722</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.7732</v>
+      </c>
+      <c r="C15" t="n">
+        <v>481.1941</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36.6514</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.7997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>469.128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35.6214</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>455.9526</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34.5914</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.805</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442.943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33.5615</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.8054</v>
+      </c>
+      <c r="C19" t="n">
+        <v>429.7694</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32.5292</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.8128</v>
+      </c>
+      <c r="C20" t="n">
+        <v>416.789</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.4992</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8144</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.6425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.4601</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8141</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390.3196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29.4324</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.8176</v>
+      </c>
+      <c r="C23" t="n">
+        <v>377.2516</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28.4001</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.8167</v>
+      </c>
+      <c r="C24" t="n">
+        <v>363.9944</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27.3678</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C25" t="n">
+        <v>350.5825</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.3355</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.8128</v>
+      </c>
+      <c r="C26" t="n">
+        <v>337.4313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.3033</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8144</v>
+      </c>
+      <c r="C27" t="n">
+        <v>324.2456</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.271</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.8695</v>
+      </c>
+      <c r="C28" t="n">
+        <v>312.3565</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.2387</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.8716</v>
+      </c>
+      <c r="C29" t="n">
+        <v>299.1195</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22.2316</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.8727</v>
+      </c>
+      <c r="C30" t="n">
+        <v>286.182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21.1696</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.878</v>
+      </c>
+      <c r="C31" t="n">
+        <v>272.6223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20.1442</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.8943</v>
+      </c>
+      <c r="C32" t="n">
+        <v>259.7444</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19.1119</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.8968</v>
+      </c>
+      <c r="C33" t="n">
+        <v>246.4821</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.0751</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.9016</v>
+      </c>
+      <c r="C34" t="n">
+        <v>233.197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17.0451</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.9032</v>
+      </c>
+      <c r="C35" t="n">
+        <v>219.9359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16.0105</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.9052</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206.6197</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14.9737</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12.9096</v>
+      </c>
+      <c r="C37" t="n">
+        <v>193.3041</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.946</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9126</v>
+      </c>
+      <c r="C38" t="n">
+        <v>180.0784</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12.9091</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.9126</v>
+      </c>
+      <c r="C39" t="n">
+        <v>166.69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11.8769</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.9769</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.1246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10.8423</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.1504</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142.5803</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.1673</v>
+      </c>
+      <c r="C42" t="n">
+        <v>129.1717</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.777799999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.1673</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115.5794</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7.7546</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.1655</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.0935</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6.7086</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.1698</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88.3515</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.6764</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.1721</v>
+      </c>
+      <c r="C46" t="n">
+        <v>74.7697</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.6555</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.1813</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.3658</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.6164</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.1801</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.6645</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.6001</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.1877</v>
+      </c>
+      <c r="C49" t="n">
+        <v>34.2898</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2.4308</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.192</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.0667</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.4079</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.1934</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31.7681</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.4033</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.1964</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31.7148</v>
       </c>
     </row>
   </sheetData>
